--- a/scrum/Dailyscrum.xlsx
+++ b/scrum/Dailyscrum.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bram\Documents\GitHub\project-appdev\scrum\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11400919\Documents\GitHub\AppDev05_2016\scrum\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="33">
   <si>
     <t>Datum</t>
   </si>
@@ -130,6 +130,9 @@
   <si>
     <t>docx bestanden omgezet naar md.
 SUC nagekeken en samengevoegd in 1 bestand</t>
+  </si>
+  <si>
+    <t>SUC nagekeken + bestanden overlopen op fouten</t>
   </si>
 </sst>
 </file>
@@ -239,9 +242,6 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -260,9 +260,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -346,9 +349,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Kantoor">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -386,7 +389,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Kantoor">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -458,7 +461,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Kantoor">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -623,69 +626,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="121.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" ht="143.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -713,99 +716,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1">
+      <c r="A1" s="7">
         <v>42426</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="121.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="143.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -837,99 +840,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1">
+      <c r="A1" s="7">
         <v>42431</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="121.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="143.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6" t="s">
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="6"/>
+      <c r="G5" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -944,8 +947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -957,75 +960,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1">
+      <c r="A1" s="7">
         <v>42433</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="121.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5" t="s">
+      <c r="C3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="143.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/scrum/Dailyscrum.xlsx
+++ b/scrum/Dailyscrum.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="984" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" state="visible" r:id="rId2"/>
@@ -137,7 +137,8 @@
   </si>
   <si>
     <t xml:space="preserve">Bestand “analyse.pdf” verzonden naar EPOS
-Verslag 04/02/2016 gemaakt</t>
+Verslag 04/02/2016 gemaakt
+Website ‘Eerste Test Design’</t>
   </si>
 </sst>
 </file>
@@ -387,10 +388,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="22.6785714285714"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="34.5561224489796"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="22.6785714285714"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.75"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="23.0051020408163"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="35.0969387755102"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="23.0051020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.85714285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -485,10 +486,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="22.6785714285714"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="34.5561224489796"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="22.6785714285714"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.75"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="23.0051020408163"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="35.0969387755102"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="23.0051020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.85714285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -613,10 +614,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="22.6785714285714"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="34.5561224489796"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="22.6785714285714"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.75"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="23.0051020408163"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="35.0969387755102"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="23.0051020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.85714285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -741,10 +742,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="22.6785714285714"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="34.5561224489796"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="22.6785714285714"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.75"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="23.0051020408163"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="35.0969387755102"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="23.0051020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.85714285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -846,15 +847,15 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="22.6785714285714"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="34.5561224489796"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="22.6785714285714"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.75"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="23.0051020408163"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="35.0969387755102"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="23.0051020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.85714285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/scrum/Dailyscrum.xlsx
+++ b/scrum/Dailyscrum.xlsx
@@ -5,14 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="984" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="26-02-2016" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="02-03-2016" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="04-03-2016" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="xx-03-2016" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="11-03-2016" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="35">
   <si>
     <t xml:space="preserve">Datum</t>
   </si>
@@ -388,10 +388,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="23.0051020408163"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="35.0969387755102"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="23.0051020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.85714285714286"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="23.3265306122449"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="35.6377551020408"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="23.3265306122449"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -486,10 +485,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="23.0051020408163"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="35.0969387755102"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="23.0051020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.85714285714286"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="23.3265306122449"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="35.6377551020408"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="23.3265306122449"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -614,10 +612,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="23.0051020408163"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="35.0969387755102"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="23.0051020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.85714285714286"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="23.3265306122449"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="35.6377551020408"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="23.3265306122449"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -736,16 +733,15 @@
   </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="23.0051020408163"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="35.0969387755102"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="23.0051020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.85714285714286"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="23.3265306122449"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="35.6377551020408"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="23.3265306122449"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -846,21 +842,20 @@
   </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="23.0051020408163"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="35.0969387755102"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="23.0051020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.85714285714286"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="23.3265306122449"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="35.6377551020408"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="23.3265306122449"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+      <c r="A1" s="1" t="n">
+        <v>42440</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>

--- a/scrum/Dailyscrum.xlsx
+++ b/scrum/Dailyscrum.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="984" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,6 +13,7 @@
     <sheet name="02-03-2016" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="04-03-2016" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="11-03-2016" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="xx-03-2016" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="37">
   <si>
     <t xml:space="preserve">Datum</t>
   </si>
@@ -139,6 +140,12 @@
     <t xml:space="preserve">Bestand “analyse.pdf” verzonden naar EPOS
 Verslag 04/02/2016 gemaakt
 Website ‘Eerste Test Design’</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bootstrap course “Code School”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kennis Bootstrap ontbreekt</t>
   </si>
 </sst>
 </file>
@@ -388,9 +395,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="23.3265306122449"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="35.6377551020408"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="23.3265306122449"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="23.6530612244898"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="36.2857142857143"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="23.6530612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.63775510204082"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -485,9 +493,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="23.3265306122449"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="35.6377551020408"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="23.3265306122449"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="23.6530612244898"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="36.2857142857143"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="23.6530612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.63775510204082"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -612,9 +621,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="23.3265306122449"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="35.6377551020408"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="23.3265306122449"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="23.6530612244898"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="36.2857142857143"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="23.6530612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.63775510204082"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -739,9 +749,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="23.3265306122449"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="35.6377551020408"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="23.3265306122449"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="23.6530612244898"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="36.2857142857143"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="23.6530612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.63775510204082"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -842,20 +853,125 @@
   </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="23.6530612244898"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="36.2857142857143"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="23.6530612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.63775510204082"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="23.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="n">
+        <v>42440</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="121.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" customFormat="false" ht="143.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" customFormat="false" ht="104.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G5"/>
+  <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="23.3265306122449"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="35.6377551020408"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="23.3265306122449"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="23.6530612244898"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="36.2857142857143"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="23.6530612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.63775510204082"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="n">
-        <v>42440</v>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -889,9 +1005,7 @@
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>34</v>
-      </c>
+      <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>

--- a/scrum/Dailyscrum.xlsx
+++ b/scrum/Dailyscrum.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11400919\Documents\GitHub\AppDev05_2016\scrum\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="984" firstSheet="0" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="984" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="Template" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="26-02-2016" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="02-03-2016" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="04-03-2016" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="11-03-2016" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="xx-03-2016" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Template" sheetId="1" r:id="rId1"/>
+    <sheet name="26-02-2016" sheetId="2" r:id="rId2"/>
+    <sheet name="02-03-2016" sheetId="3" r:id="rId3"/>
+    <sheet name="04-03-2016" sheetId="4" r:id="rId4"/>
+    <sheet name="11-03-2016" sheetId="5" r:id="rId5"/>
+    <sheet name="xx-03-2016" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -25,30 +29,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="37">
-  <si>
-    <t xml:space="preserve">Datum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rudy Mas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Joran Claessens</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kevin Strijbos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sacha Reyskens</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bram Van Vleymen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frédérique Van Wonterghem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wat heb je gedaan?</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="38">
+  <si>
+    <t>Datum</t>
+  </si>
+  <si>
+    <t>Rudy Mas</t>
+  </si>
+  <si>
+    <t>Joran Claessens</t>
+  </si>
+  <si>
+    <t>Kevin Strijbos</t>
+  </si>
+  <si>
+    <t>Sacha Reyskens</t>
+  </si>
+  <si>
+    <t>Bram Van Vleymen</t>
+  </si>
+  <si>
+    <t>Frédérique Van Wonterghem</t>
+  </si>
+  <si>
+    <t>Wat heb je gedaan?</t>
   </si>
   <si>
     <t xml:space="preserve">Wat ga je doen? </t>
@@ -57,127 +61,111 @@
     <t xml:space="preserve">Wat zijn je problemen? </t>
   </si>
   <si>
-    <t xml:space="preserve">GitHub Bekeken</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">scope.md geschreven</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Github volledig doorlopen, snap het nu perfect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Github bekeken, scum template gemaakt.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GitHub bekeken</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Use Case “Eventlijst van standpunt student”
+    <t>GitHub Bekeken</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>scope.md geschreven</t>
+  </si>
+  <si>
+    <t>Github volledig doorlopen, snap het nu perfect</t>
+  </si>
+  <si>
+    <t>Github bekeken, scum template gemaakt.</t>
+  </si>
+  <si>
+    <t>GitHub bekeken</t>
+  </si>
+  <si>
+    <t>Use Case “Eventlijst van standpunt student”
 Beschrijving Pagina “Eventlijst”
 Beschrijving JavaScript / Jquery (Bootstrap)
 Facebook Info Doornemen</t>
   </si>
   <si>
-    <t xml:space="preserve">Use case “vervoersysteem”, beschrijving websitepagina “Vervoersysteem”, beschrijving HTML5 / CSS3, doornemen cursus Facebook API</t>
-  </si>
-  <si>
-    <t xml:space="preserve">use case "eventrating, student kan een event een waardering geven", gitignore onderzoeken, sql server in de cloud onderzoeken, beschrijving home/newsfeed pagina, beschrijving asp.net mvc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Use case controle van organisatie + reviews, Beschrijving van profiel pagina organisatie, Bestuderen van ADO.Net SQL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Use case Aanwezigheidsstatistieken (De raadpleging van de aanwezigheid). Statistiekenpagina beschrijven. Twitter API doornemen en beschrijven. Facebook api crusus doornemen.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Use case maken over het filteringsysteem en mutual friends, een paginabeschrijving over het filteringsysteem en het de Facebook API bespreken</t>
-  </si>
-  <si>
-    <t xml:space="preserve">use case: Evenementenlijst + Diagram
+    <t>Use case “vervoersysteem”, beschrijving websitepagina “Vervoersysteem”, beschrijving HTML5 / CSS3, doornemen cursus Facebook API</t>
+  </si>
+  <si>
+    <t>use case "eventrating, student kan een event een waardering geven", gitignore onderzoeken, sql server in de cloud onderzoeken, beschrijving home/newsfeed pagina, beschrijving asp.net mvc</t>
+  </si>
+  <si>
+    <t>Use case controle van organisatie + reviews, Beschrijving van profiel pagina organisatie, Bestuderen van ADO.Net SQL</t>
+  </si>
+  <si>
+    <t>Use case Aanwezigheidsstatistieken (De raadpleging van de aanwezigheid). Statistiekenpagina beschrijven. Twitter API doornemen en beschrijven. Facebook api crusus doornemen.</t>
+  </si>
+  <si>
+    <t>Use case maken over het filteringsysteem en mutual friends, een paginabeschrijving over het filteringsysteem en het de Facebook API bespreken</t>
+  </si>
+  <si>
+    <t>use case: Evenementenlijst + Diagram
 Beschrijving pagina: Evenementenlijst
 Beschrijving taal: Bootstrap</t>
   </si>
   <si>
-    <t xml:space="preserve">Use case “vervoersysteem”, beschrijving websitepagina “Vervoersysteem”, beschrijving HTML5 / CSS3, cursus Facebook API doorgenomen</t>
+    <t>Use case “vervoersysteem”, beschrijving websitepagina “Vervoersysteem”, beschrijving HTML5 / CSS3, cursus Facebook API doorgenomen</t>
   </si>
   <si>
     <t xml:space="preserve">use case controle op reviews/organisaties, beschrijving ado.net en sql, beschrijving van beide pagina's. </t>
   </si>
   <si>
-    <t xml:space="preserve">Use cases verwerken en uniform maken
+    <t>Use cases verwerken en uniform maken
 Docx bestanden omzetten naar MD bestanden</t>
   </si>
   <si>
-    <t xml:space="preserve">scope.md aanpassen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">contextdiagram maken, agendapunten voorbereiden en werkjes controleren</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Use cases afmaken, diagram maken, scrum invullen (nu bezig), samenvoegen van alle taalbeschrijvingen.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visio diagrammen samenvoegen en generaliseren + inleiding database</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Afmaken Facebook API + bundelen paginabeschrijvingen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">docx bestanden omgezet naar md.
+    <t>scope.md aanpassen</t>
+  </si>
+  <si>
+    <t>contextdiagram maken, agendapunten voorbereiden en werkjes controleren</t>
+  </si>
+  <si>
+    <t>Use cases afmaken, diagram maken, scrum invullen (nu bezig), samenvoegen van alle taalbeschrijvingen.</t>
+  </si>
+  <si>
+    <t>Visio diagrammen samenvoegen en generaliseren + inleiding database</t>
+  </si>
+  <si>
+    <t>Afmaken Facebook API + bundelen paginabeschrijvingen</t>
+  </si>
+  <si>
+    <t>docx bestanden omgezet naar md.
 SUC nagekeken en samengevoegd in 1 bestand</t>
   </si>
   <si>
-    <t xml:space="preserve">SUC nagekeken + bestanden overlopen op fouten</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UML Deployment diagram onderzoeken
+    <t>SUC nagekeken + bestanden overlopen op fouten</t>
+  </si>
+  <si>
+    <t>UML Deployment diagram onderzoeken
 Eerste schetsen van de website mockups</t>
   </si>
   <si>
-    <t xml:space="preserve">Bestand “analyse.pdf” verzonden naar EPOS
+    <t>Bestand “analyse.pdf” verzonden naar EPOS
 Verslag 04/02/2016 gemaakt
 Website ‘Eerste Test Design’</t>
   </si>
   <si>
-    <t xml:space="preserve">Bootstrap course “Code School”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kennis Bootstrap ontbreekt</t>
+    <t>Bootstrap course “Code School”</t>
+  </si>
+  <si>
+    <t>Kennis Bootstrap ontbreekt</t>
+  </si>
+  <si>
+    <t>Mockups maken van desktop app, starten aan domain modelling</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="D/MMM/YY"/>
-  </numFmts>
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="18"/>
@@ -230,95 +218,74 @@
     </fill>
   </fills>
   <borders count="3">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="15" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -377,31 +344,305 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+  <a:themeElements>
+    <a:clrScheme name="Kantoor">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Kantoor">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Kantoor">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="23.6530612244898"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="36.2857142857143"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="23.6530612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.63775510204082"/>
+    <col min="1" max="6" width="23.6640625"/>
+    <col min="7" max="7" width="36.33203125"/>
+    <col min="8" max="9" width="23.6640625"/>
+    <col min="10" max="1025" width="8.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="23.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:7" ht="23.4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -412,7 +653,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -433,7 +674,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="121.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:7" ht="121.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -444,7 +685,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" customFormat="false" ht="143.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:7" ht="143.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -455,7 +696,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" customFormat="false" ht="104.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:7" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -470,37 +711,29 @@
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="23.6530612244898"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="36.2857142857143"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="23.6530612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.63775510204082"/>
+    <col min="1" max="6" width="23.6640625"/>
+    <col min="7" max="7" width="36.33203125"/>
+    <col min="8" max="9" width="23.6640625"/>
+    <col min="10" max="1025" width="8.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="23.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="n">
+    <row r="1" spans="1:7" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1">
         <v>42426</v>
       </c>
       <c r="B1" s="1"/>
@@ -510,7 +743,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -531,7 +764,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="121.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:7" ht="121.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -554,7 +787,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="143.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:7" ht="143.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -577,7 +810,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="104.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:7" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -598,10 +831,9 @@
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Standaard"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Standaard"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -609,26 +841,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="23.6530612244898"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="36.2857142857143"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="23.6530612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.63775510204082"/>
+    <col min="1" max="6" width="23.6640625"/>
+    <col min="7" max="7" width="36.33203125"/>
+    <col min="8" max="9" width="23.6640625"/>
+    <col min="10" max="1025" width="8.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="23.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="n">
+    <row r="1" spans="1:7" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1">
         <v>42431</v>
       </c>
       <c r="B1" s="1"/>
@@ -638,7 +867,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -659,7 +888,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="121.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:7" ht="121.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -682,7 +911,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="143.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:7" ht="143.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -705,7 +934,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="104.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:7" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -726,37 +955,27 @@
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="23.6530612244898"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="36.2857142857143"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="23.6530612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.63775510204082"/>
+    <col min="1" max="6" width="23.6640625"/>
+    <col min="7" max="7" width="36.33203125"/>
+    <col min="8" max="9" width="23.6640625"/>
+    <col min="10" max="1025" width="8.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="23.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="n">
+    <row r="1" spans="1:7" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1">
         <v>42433</v>
       </c>
       <c r="B1" s="1"/>
@@ -766,7 +985,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -787,7 +1006,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="121.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:7" ht="121.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -806,7 +1025,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="143.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:7" ht="143.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -819,7 +1038,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" customFormat="false" ht="104.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:7" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -836,37 +1055,29 @@
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="23.6530612244898"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="36.2857142857143"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="23.6530612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.63775510204082"/>
+    <col min="1" max="6" width="23.6640625"/>
+    <col min="7" max="7" width="36.33203125"/>
+    <col min="8" max="9" width="23.6640625"/>
+    <col min="10" max="1025" width="8.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="23.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="n">
+    <row r="1" spans="1:7" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1">
         <v>42440</v>
       </c>
       <c r="B1" s="1"/>
@@ -876,7 +1087,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -897,7 +1108,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="121.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:7" ht="121.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -910,20 +1121,22 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" customFormat="false" ht="143.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:7" ht="143.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="5"/>
+      <c r="C4" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" customFormat="false" ht="104.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:7" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -940,36 +1153,28 @@
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="23.6530612244898"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="36.2857142857143"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="23.6530612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.63775510204082"/>
+    <col min="1" max="6" width="23.6640625"/>
+    <col min="7" max="7" width="36.33203125"/>
+    <col min="8" max="9" width="23.6640625"/>
+    <col min="10" max="1025" width="8.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="23.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:7" ht="23.4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -980,7 +1185,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -1001,7 +1206,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="121.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:7" ht="121.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -1012,7 +1217,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" customFormat="false" ht="143.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:7" ht="143.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -1023,7 +1228,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" customFormat="false" ht="104.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:7" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -1038,12 +1243,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/scrum/Dailyscrum.xlsx
+++ b/scrum/Dailyscrum.xlsx
@@ -1,25 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11400919\Documents\GitHub\AppDev05_2016\scrum\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="984" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="Template" sheetId="1" r:id="rId1"/>
-    <sheet name="26-02-2016" sheetId="2" r:id="rId2"/>
-    <sheet name="02-03-2016" sheetId="3" r:id="rId3"/>
-    <sheet name="04-03-2016" sheetId="4" r:id="rId4"/>
-    <sheet name="11-03-2016" sheetId="5" r:id="rId5"/>
-    <sheet name="xx-03-2016" sheetId="6" r:id="rId6"/>
+    <sheet name="Template" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="26-02-2016" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="02-03-2016" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="04-03-2016" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="11-03-2016" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="xx-03-2016" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -29,30 +25,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="38">
-  <si>
-    <t>Datum</t>
-  </si>
-  <si>
-    <t>Rudy Mas</t>
-  </si>
-  <si>
-    <t>Joran Claessens</t>
-  </si>
-  <si>
-    <t>Kevin Strijbos</t>
-  </si>
-  <si>
-    <t>Sacha Reyskens</t>
-  </si>
-  <si>
-    <t>Bram Van Vleymen</t>
-  </si>
-  <si>
-    <t>Frédérique Van Wonterghem</t>
-  </si>
-  <si>
-    <t>Wat heb je gedaan?</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="39">
+  <si>
+    <t xml:space="preserve">Datum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rudy Mas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joran Claessens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kevin Strijbos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sacha Reyskens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bram Van Vleymen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frédérique Van Wonterghem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wat heb je gedaan?</t>
   </si>
   <si>
     <t xml:space="preserve">Wat ga je doen? </t>
@@ -61,111 +57,133 @@
     <t xml:space="preserve">Wat zijn je problemen? </t>
   </si>
   <si>
-    <t>GitHub Bekeken</t>
-  </si>
-  <si>
-    <t>/</t>
-  </si>
-  <si>
-    <t>scope.md geschreven</t>
-  </si>
-  <si>
-    <t>Github volledig doorlopen, snap het nu perfect</t>
-  </si>
-  <si>
-    <t>Github bekeken, scum template gemaakt.</t>
-  </si>
-  <si>
-    <t>GitHub bekeken</t>
-  </si>
-  <si>
-    <t>Use Case “Eventlijst van standpunt student”
+    <t xml:space="preserve">GitHub Bekeken</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scope.md geschreven</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Github volledig doorlopen, snap het nu perfect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Github bekeken, scum template gemaakt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GitHub bekeken</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use Case “Eventlijst van standpunt student”
 Beschrijving Pagina “Eventlijst”
 Beschrijving JavaScript / Jquery (Bootstrap)
 Facebook Info Doornemen</t>
   </si>
   <si>
-    <t>Use case “vervoersysteem”, beschrijving websitepagina “Vervoersysteem”, beschrijving HTML5 / CSS3, doornemen cursus Facebook API</t>
-  </si>
-  <si>
-    <t>use case "eventrating, student kan een event een waardering geven", gitignore onderzoeken, sql server in de cloud onderzoeken, beschrijving home/newsfeed pagina, beschrijving asp.net mvc</t>
-  </si>
-  <si>
-    <t>Use case controle van organisatie + reviews, Beschrijving van profiel pagina organisatie, Bestuderen van ADO.Net SQL</t>
-  </si>
-  <si>
-    <t>Use case Aanwezigheidsstatistieken (De raadpleging van de aanwezigheid). Statistiekenpagina beschrijven. Twitter API doornemen en beschrijven. Facebook api crusus doornemen.</t>
-  </si>
-  <si>
-    <t>Use case maken over het filteringsysteem en mutual friends, een paginabeschrijving over het filteringsysteem en het de Facebook API bespreken</t>
-  </si>
-  <si>
-    <t>use case: Evenementenlijst + Diagram
+    <t xml:space="preserve">Use case “vervoersysteem”, beschrijving websitepagina “Vervoersysteem”, beschrijving HTML5 / CSS3, doornemen cursus Facebook API</t>
+  </si>
+  <si>
+    <t xml:space="preserve">use case "eventrating, student kan een event een waardering geven", gitignore onderzoeken, sql server in de cloud onderzoeken, beschrijving home/newsfeed pagina, beschrijving asp.net mvc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use case controle van organisatie + reviews, Beschrijving van profiel pagina organisatie, Bestuderen van ADO.Net SQL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use case Aanwezigheidsstatistieken (De raadpleging van de aanwezigheid). Statistiekenpagina beschrijven. Twitter API doornemen en beschrijven. Facebook api crusus doornemen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use case maken over het filteringsysteem en mutual friends, een paginabeschrijving over het filteringsysteem en het de Facebook API bespreken</t>
+  </si>
+  <si>
+    <t xml:space="preserve">use case: Evenementenlijst + Diagram
 Beschrijving pagina: Evenementenlijst
 Beschrijving taal: Bootstrap</t>
   </si>
   <si>
-    <t>Use case “vervoersysteem”, beschrijving websitepagina “Vervoersysteem”, beschrijving HTML5 / CSS3, cursus Facebook API doorgenomen</t>
+    <t xml:space="preserve">Use case “vervoersysteem”, beschrijving websitepagina “Vervoersysteem”, beschrijving HTML5 / CSS3, cursus Facebook API doorgenomen</t>
   </si>
   <si>
     <t xml:space="preserve">use case controle op reviews/organisaties, beschrijving ado.net en sql, beschrijving van beide pagina's. </t>
   </si>
   <si>
-    <t>Use cases verwerken en uniform maken
+    <t xml:space="preserve">Use cases verwerken en uniform maken
 Docx bestanden omzetten naar MD bestanden</t>
   </si>
   <si>
-    <t>scope.md aanpassen</t>
-  </si>
-  <si>
-    <t>contextdiagram maken, agendapunten voorbereiden en werkjes controleren</t>
-  </si>
-  <si>
-    <t>Use cases afmaken, diagram maken, scrum invullen (nu bezig), samenvoegen van alle taalbeschrijvingen.</t>
-  </si>
-  <si>
-    <t>Visio diagrammen samenvoegen en generaliseren + inleiding database</t>
-  </si>
-  <si>
-    <t>Afmaken Facebook API + bundelen paginabeschrijvingen</t>
-  </si>
-  <si>
-    <t>docx bestanden omgezet naar md.
+    <t xml:space="preserve">scope.md aanpassen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contextdiagram maken, agendapunten voorbereiden en werkjes controleren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use cases afmaken, diagram maken, scrum invullen (nu bezig), samenvoegen van alle taalbeschrijvingen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visio diagrammen samenvoegen en generaliseren + inleiding database</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afmaken Facebook API + bundelen paginabeschrijvingen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">docx bestanden omgezet naar md.
 SUC nagekeken en samengevoegd in 1 bestand</t>
   </si>
   <si>
-    <t>SUC nagekeken + bestanden overlopen op fouten</t>
-  </si>
-  <si>
-    <t>UML Deployment diagram onderzoeken
+    <t xml:space="preserve">SUC nagekeken + bestanden overlopen op fouten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UML Deployment diagram onderzoeken
 Eerste schetsen van de website mockups</t>
   </si>
   <si>
-    <t>Bestand “analyse.pdf” verzonden naar EPOS
+    <t xml:space="preserve">Bestand “analyse.pdf” verzonden naar EPOS
 Verslag 04/02/2016 gemaakt
 Website ‘Eerste Test Design’</t>
   </si>
   <si>
-    <t>Bootstrap course “Code School”</t>
-  </si>
-  <si>
-    <t>Kennis Bootstrap ontbreekt</t>
-  </si>
-  <si>
-    <t>Mockups maken van desktop app, starten aan domain modelling</t>
+    <t xml:space="preserve">Bootstrap course “Code School”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mockups maken van desktop app, starten aan domain modelling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kennis Bootstrap ontbreekt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mockups gemaakt: Login / Registreren + Filtering Gebruikers</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="D\/MMM\/YY"/>
+  </numFmts>
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="18"/>
@@ -218,74 +236,95 @@
     </fill>
   </fills>
   <borders count="3">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="15" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -344,305 +383,31 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
-  <a:themeElements>
-    <a:clrScheme name="Kantoor">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4472C4"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Kantoor">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Kantoor">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="6" width="23.6640625"/>
-    <col min="7" max="7" width="36.33203125"/>
-    <col min="8" max="9" width="23.6640625"/>
-    <col min="10" max="1025" width="8.6640625"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="24.0816326530612"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="36.9336734693878"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="24.0816326530612"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.75"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23.4" x14ac:dyDescent="0.3">
+    <row r="1" customFormat="false" ht="23.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -653,7 +418,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+    <row r="2" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -674,7 +439,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="121.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" customFormat="false" ht="121.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -685,7 +450,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:7" ht="143.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" customFormat="false" ht="143.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -696,7 +461,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:7" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" customFormat="false" ht="104.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -711,29 +476,37 @@
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="6" width="23.6640625"/>
-    <col min="7" max="7" width="36.33203125"/>
-    <col min="8" max="9" width="23.6640625"/>
-    <col min="10" max="1025" width="8.6640625"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="24.0816326530612"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="36.9336734693878"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="24.0816326530612"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.75"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1">
+    <row r="1" customFormat="false" ht="23.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="n">
         <v>42426</v>
       </c>
       <c r="B1" s="1"/>
@@ -743,7 +516,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+    <row r="2" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -764,7 +537,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="121.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" customFormat="false" ht="121.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -787,7 +560,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="143.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" customFormat="false" ht="143.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -810,7 +583,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" customFormat="false" ht="104.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -831,9 +604,10 @@
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <headerFooter>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Standaard"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Standaard"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -841,23 +615,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="6" width="23.6640625"/>
-    <col min="7" max="7" width="36.33203125"/>
-    <col min="8" max="9" width="23.6640625"/>
-    <col min="10" max="1025" width="8.6640625"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="24.0816326530612"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="36.9336734693878"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="24.0816326530612"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.75"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1">
+    <row r="1" customFormat="false" ht="23.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="n">
         <v>42431</v>
       </c>
       <c r="B1" s="1"/>
@@ -867,7 +644,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+    <row r="2" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -888,7 +665,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="121.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" customFormat="false" ht="121.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -911,7 +688,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="143.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" customFormat="false" ht="143.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -934,7 +711,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" customFormat="false" ht="104.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -955,27 +732,37 @@
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="6" width="23.6640625"/>
-    <col min="7" max="7" width="36.33203125"/>
-    <col min="8" max="9" width="23.6640625"/>
-    <col min="10" max="1025" width="8.6640625"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="24.0816326530612"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="36.9336734693878"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="24.0816326530612"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.75"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1">
+    <row r="1" customFormat="false" ht="23.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="n">
         <v>42433</v>
       </c>
       <c r="B1" s="1"/>
@@ -985,7 +772,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+    <row r="2" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -1006,7 +793,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="121.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" customFormat="false" ht="121.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -1025,7 +812,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="143.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" customFormat="false" ht="143.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -1038,7 +825,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:7" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" customFormat="false" ht="104.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -1055,29 +842,37 @@
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="6" width="23.6640625"/>
-    <col min="7" max="7" width="36.33203125"/>
-    <col min="8" max="9" width="23.6640625"/>
-    <col min="10" max="1025" width="8.6640625"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="24.0816326530612"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="36.9336734693878"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="24.0816326530612"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.75"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1">
+    <row r="1" customFormat="false" ht="23.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="n">
         <v>42440</v>
       </c>
       <c r="B1" s="1"/>
@@ -1087,7 +882,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+    <row r="2" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -1108,7 +903,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="121.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" customFormat="false" ht="121.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -1121,7 +916,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:7" ht="143.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" customFormat="false" ht="143.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -1129,19 +924,19 @@
         <v>35</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:7" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" customFormat="false" ht="104.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="6"/>
@@ -1153,28 +948,36 @@
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="6" width="23.6640625"/>
-    <col min="7" max="7" width="36.33203125"/>
-    <col min="8" max="9" width="23.6640625"/>
-    <col min="10" max="1025" width="8.6640625"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="24.0816326530612"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="36.9336734693878"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="24.0816326530612"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.75"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23.4" x14ac:dyDescent="0.3">
+    <row r="1" customFormat="false" ht="23.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1185,7 +988,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+    <row r="2" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -1206,18 +1009,20 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="121.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" customFormat="false" ht="121.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5"/>
+      <c r="B3" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:7" ht="143.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" customFormat="false" ht="143.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -1228,7 +1033,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:7" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" customFormat="false" ht="104.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -1243,7 +1048,12 @@
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/scrum/Dailyscrum.xlsx
+++ b/scrum/Dailyscrum.xlsx
@@ -151,7 +151,8 @@
     <t xml:space="preserve">Kennis Bootstrap ontbreekt</t>
   </si>
   <si>
-    <t xml:space="preserve">Mockups gemaakt: Login / Registreren + Filtering Gebruikers</t>
+    <t xml:space="preserve">Mockups gemaakt: Login / Registreren + Filtering Gebruikers
+Architecture.png (UML Deployment Diagram) gemaakt</t>
   </si>
 </sst>
 </file>
@@ -160,7 +161,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="D\/MMM\/YY"/>
+    <numFmt numFmtId="165" formatCode="D/MMM/YY"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -401,10 +402,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="24.0816326530612"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="36.9336734693878"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="24.0816326530612"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.75"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="24.515306122449"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="37.4744897959184"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="24.515306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.85714285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -499,10 +500,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="24.0816326530612"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="36.9336734693878"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="24.0816326530612"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.75"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="24.515306122449"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="37.4744897959184"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="24.515306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.85714285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -627,10 +628,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="24.0816326530612"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="36.9336734693878"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="24.0816326530612"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.75"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="24.515306122449"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="37.4744897959184"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="24.515306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.85714285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -755,10 +756,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="24.0816326530612"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="36.9336734693878"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="24.0816326530612"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.75"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="24.515306122449"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="37.4744897959184"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="24.515306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.85714285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -865,10 +866,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="24.0816326530612"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="36.9336734693878"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="24.0816326530612"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.75"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="24.515306122449"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="37.4744897959184"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="24.515306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.85714285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -971,10 +972,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="24.0816326530612"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="36.9336734693878"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="24.0816326530612"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.75"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="24.515306122449"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="37.4744897959184"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="24.515306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.85714285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/scrum/Dailyscrum.xlsx
+++ b/scrum/Dailyscrum.xlsx
@@ -151,8 +151,9 @@
     <t xml:space="preserve">Kennis Bootstrap ontbreekt</t>
   </si>
   <si>
-    <t xml:space="preserve">Mockups gemaakt: Login / Registreren + Filtering Gebruikers
-Architecture.png (UML Deployment Diagram) gemaakt</t>
+    <t xml:space="preserve">Mockups gemaakt: Login + Registreren + Filtering Gebruikers + Aansprakelijkheid
+Architecture.png (UML Deployment Diagram) gemaakt
+Mockups samengebracht in mockups.md</t>
   </si>
 </sst>
 </file>
@@ -402,10 +403,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="24.515306122449"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="37.4744897959184"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="24.515306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.85714285714286"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="24.9489795918367"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="38.015306122449"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="24.9489795918367"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -500,10 +500,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="24.515306122449"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="37.4744897959184"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="24.515306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.85714285714286"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="24.9489795918367"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="38.015306122449"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="24.9489795918367"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -628,10 +627,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="24.515306122449"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="37.4744897959184"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="24.515306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.85714285714286"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="24.9489795918367"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="38.015306122449"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="24.9489795918367"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -756,10 +754,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="24.515306122449"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="37.4744897959184"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="24.515306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.85714285714286"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="24.9489795918367"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="38.015306122449"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="24.9489795918367"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -861,15 +858,14 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="24.515306122449"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="37.4744897959184"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="24.515306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.85714285714286"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="24.9489795918367"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="38.015306122449"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="24.9489795918367"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -972,10 +968,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="24.515306122449"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="37.4744897959184"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="24.515306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.85714285714286"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="24.9489795918367"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="38.015306122449"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="24.9489795918367"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/scrum/Dailyscrum.xlsx
+++ b/scrum/Dailyscrum.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="40">
   <si>
     <t xml:space="preserve">Datum</t>
   </si>
@@ -154,6 +154,10 @@
     <t xml:space="preserve">Mockups gemaakt: Login + Registreren + Filtering Gebruikers + Aansprakelijkheid
 Architecture.png (UML Deployment Diagram) gemaakt
 Mockups samengebracht in mockups.md</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Azure handleiding doornemen
+Code onderdelen voorbereiden</t>
   </si>
 </sst>
 </file>
@@ -403,9 +407,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="24.9489795918367"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="38.015306122449"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="24.9489795918367"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="25.3775510204082"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="38.6632653061224"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="25.3775510204082"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.63775510204082"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -500,9 +505,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="24.9489795918367"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="38.015306122449"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="24.9489795918367"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="25.3775510204082"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="38.6632653061224"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="25.3775510204082"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.63775510204082"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -627,9 +633,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="24.9489795918367"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="38.015306122449"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="24.9489795918367"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="25.3775510204082"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="38.6632653061224"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="25.3775510204082"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.63775510204082"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -754,9 +761,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="24.9489795918367"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="38.015306122449"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="24.9489795918367"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="25.3775510204082"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="38.6632653061224"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="25.3775510204082"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.63775510204082"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -863,9 +871,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="24.9489795918367"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="38.015306122449"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="24.9489795918367"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="25.3775510204082"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="38.6632653061224"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="25.3775510204082"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.63775510204082"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -968,9 +977,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="24.9489795918367"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="38.015306122449"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="24.9489795918367"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="25.3775510204082"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="38.6632653061224"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="25.3775510204082"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.63775510204082"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1022,7 +1032,9 @@
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5"/>
+      <c r="B4" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>

--- a/scrum/Dailyscrum.xlsx
+++ b/scrum/Dailyscrum.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11400919\Documents\GitHub\AppDev05_2016\scrum\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="989" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="Template" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="26-02-2016" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="02-03-2016" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="04-03-2016" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="11-03-2016" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="xx-03-2016" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Template" sheetId="1" r:id="rId1"/>
+    <sheet name="26-02-2016" sheetId="2" r:id="rId2"/>
+    <sheet name="02-03-2016" sheetId="3" r:id="rId3"/>
+    <sheet name="04-03-2016" sheetId="4" r:id="rId4"/>
+    <sheet name="11-03-2016" sheetId="5" r:id="rId5"/>
+    <sheet name="18-03-2016" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -25,30 +29,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="40">
-  <si>
-    <t xml:space="preserve">Datum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rudy Mas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Joran Claessens</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kevin Strijbos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sacha Reyskens</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bram Van Vleymen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frédérique Van Wonterghem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wat heb je gedaan?</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="41">
+  <si>
+    <t>Datum</t>
+  </si>
+  <si>
+    <t>Rudy Mas</t>
+  </si>
+  <si>
+    <t>Joran Claessens</t>
+  </si>
+  <si>
+    <t>Kevin Strijbos</t>
+  </si>
+  <si>
+    <t>Sacha Reyskens</t>
+  </si>
+  <si>
+    <t>Bram Van Vleymen</t>
+  </si>
+  <si>
+    <t>Frédérique Van Wonterghem</t>
+  </si>
+  <si>
+    <t>Wat heb je gedaan?</t>
   </si>
   <si>
     <t xml:space="preserve">Wat ga je doen? </t>
@@ -57,139 +61,123 @@
     <t xml:space="preserve">Wat zijn je problemen? </t>
   </si>
   <si>
-    <t xml:space="preserve">GitHub Bekeken</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">scope.md geschreven</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Github volledig doorlopen, snap het nu perfect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Github bekeken, scum template gemaakt.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GitHub bekeken</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Use Case “Eventlijst van standpunt student”
+    <t>GitHub Bekeken</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>scope.md geschreven</t>
+  </si>
+  <si>
+    <t>Github volledig doorlopen, snap het nu perfect</t>
+  </si>
+  <si>
+    <t>Github bekeken, scum template gemaakt.</t>
+  </si>
+  <si>
+    <t>GitHub bekeken</t>
+  </si>
+  <si>
+    <t>Use Case “Eventlijst van standpunt student”
 Beschrijving Pagina “Eventlijst”
 Beschrijving JavaScript / Jquery (Bootstrap)
 Facebook Info Doornemen</t>
   </si>
   <si>
-    <t xml:space="preserve">Use case “vervoersysteem”, beschrijving websitepagina “Vervoersysteem”, beschrijving HTML5 / CSS3, doornemen cursus Facebook API</t>
-  </si>
-  <si>
-    <t xml:space="preserve">use case "eventrating, student kan een event een waardering geven", gitignore onderzoeken, sql server in de cloud onderzoeken, beschrijving home/newsfeed pagina, beschrijving asp.net mvc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Use case controle van organisatie + reviews, Beschrijving van profiel pagina organisatie, Bestuderen van ADO.Net SQL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Use case Aanwezigheidsstatistieken (De raadpleging van de aanwezigheid). Statistiekenpagina beschrijven. Twitter API doornemen en beschrijven. Facebook api crusus doornemen.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Use case maken over het filteringsysteem en mutual friends, een paginabeschrijving over het filteringsysteem en het de Facebook API bespreken</t>
-  </si>
-  <si>
-    <t xml:space="preserve">use case: Evenementenlijst + Diagram
+    <t>Use case “vervoersysteem”, beschrijving websitepagina “Vervoersysteem”, beschrijving HTML5 / CSS3, doornemen cursus Facebook API</t>
+  </si>
+  <si>
+    <t>use case "eventrating, student kan een event een waardering geven", gitignore onderzoeken, sql server in de cloud onderzoeken, beschrijving home/newsfeed pagina, beschrijving asp.net mvc</t>
+  </si>
+  <si>
+    <t>Use case controle van organisatie + reviews, Beschrijving van profiel pagina organisatie, Bestuderen van ADO.Net SQL</t>
+  </si>
+  <si>
+    <t>Use case Aanwezigheidsstatistieken (De raadpleging van de aanwezigheid). Statistiekenpagina beschrijven. Twitter API doornemen en beschrijven. Facebook api crusus doornemen.</t>
+  </si>
+  <si>
+    <t>Use case maken over het filteringsysteem en mutual friends, een paginabeschrijving over het filteringsysteem en het de Facebook API bespreken</t>
+  </si>
+  <si>
+    <t>use case: Evenementenlijst + Diagram
 Beschrijving pagina: Evenementenlijst
 Beschrijving taal: Bootstrap</t>
   </si>
   <si>
-    <t xml:space="preserve">Use case “vervoersysteem”, beschrijving websitepagina “Vervoersysteem”, beschrijving HTML5 / CSS3, cursus Facebook API doorgenomen</t>
+    <t>Use case “vervoersysteem”, beschrijving websitepagina “Vervoersysteem”, beschrijving HTML5 / CSS3, cursus Facebook API doorgenomen</t>
   </si>
   <si>
     <t xml:space="preserve">use case controle op reviews/organisaties, beschrijving ado.net en sql, beschrijving van beide pagina's. </t>
   </si>
   <si>
-    <t xml:space="preserve">Use cases verwerken en uniform maken
+    <t>Use cases verwerken en uniform maken
 Docx bestanden omzetten naar MD bestanden</t>
   </si>
   <si>
-    <t xml:space="preserve">scope.md aanpassen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">contextdiagram maken, agendapunten voorbereiden en werkjes controleren</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Use cases afmaken, diagram maken, scrum invullen (nu bezig), samenvoegen van alle taalbeschrijvingen.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visio diagrammen samenvoegen en generaliseren + inleiding database</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Afmaken Facebook API + bundelen paginabeschrijvingen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">docx bestanden omgezet naar md.
+    <t>scope.md aanpassen</t>
+  </si>
+  <si>
+    <t>contextdiagram maken, agendapunten voorbereiden en werkjes controleren</t>
+  </si>
+  <si>
+    <t>Use cases afmaken, diagram maken, scrum invullen (nu bezig), samenvoegen van alle taalbeschrijvingen.</t>
+  </si>
+  <si>
+    <t>Visio diagrammen samenvoegen en generaliseren + inleiding database</t>
+  </si>
+  <si>
+    <t>Afmaken Facebook API + bundelen paginabeschrijvingen</t>
+  </si>
+  <si>
+    <t>docx bestanden omgezet naar md.
 SUC nagekeken en samengevoegd in 1 bestand</t>
   </si>
   <si>
-    <t xml:space="preserve">SUC nagekeken + bestanden overlopen op fouten</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UML Deployment diagram onderzoeken
+    <t>SUC nagekeken + bestanden overlopen op fouten</t>
+  </si>
+  <si>
+    <t>UML Deployment diagram onderzoeken
 Eerste schetsen van de website mockups</t>
   </si>
   <si>
-    <t xml:space="preserve">Bestand “analyse.pdf” verzonden naar EPOS
+    <t>Bestand “analyse.pdf” verzonden naar EPOS
 Verslag 04/02/2016 gemaakt
 Website ‘Eerste Test Design’</t>
   </si>
   <si>
-    <t xml:space="preserve">Bootstrap course “Code School”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mockups maken van desktop app, starten aan domain modelling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kennis Bootstrap ontbreekt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mockups gemaakt: Login + Registreren + Filtering Gebruikers + Aansprakelijkheid
+    <t>Bootstrap course “Code School”</t>
+  </si>
+  <si>
+    <t>Mockups maken van desktop app, starten aan domain modelling</t>
+  </si>
+  <si>
+    <t>Kennis Bootstrap ontbreekt</t>
+  </si>
+  <si>
+    <t>Mockups gemaakt: Login + Registreren + Filtering Gebruikers + Aansprakelijkheid
 Architecture.png (UML Deployment Diagram) gemaakt
 Mockups samengebracht in mockups.md</t>
   </si>
   <si>
-    <t xml:space="preserve">Azure handleiding doornemen
+    <t>Azure handleiding doornemen
 Code onderdelen voorbereiden</t>
+  </si>
+  <si>
+    <t>Mockups desktop gemaakt + vervoersysteem, klein deel domeinklasse</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="D/MMM/YY"/>
-  </numFmts>
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="18"/>
@@ -242,95 +230,74 @@
     </fill>
   </fills>
   <borders count="3">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="15" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -389,31 +356,305 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+  <a:themeElements>
+    <a:clrScheme name="Kantoor">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Kantoor">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Kantoor">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="25.3775510204082"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="38.6632653061224"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="25.3775510204082"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.63775510204082"/>
+    <col min="1" max="6" width="25.33203125"/>
+    <col min="7" max="7" width="38.6640625"/>
+    <col min="8" max="9" width="25.33203125"/>
+    <col min="10" max="1025" width="8.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="23.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:7" ht="23.4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -424,7 +665,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -445,7 +686,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="121.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:7" ht="121.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -456,7 +697,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" customFormat="false" ht="143.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:7" ht="143.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -467,7 +708,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" customFormat="false" ht="104.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:7" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -482,37 +723,29 @@
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="25.3775510204082"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="38.6632653061224"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="25.3775510204082"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.63775510204082"/>
+    <col min="1" max="6" width="25.33203125"/>
+    <col min="7" max="7" width="38.6640625"/>
+    <col min="8" max="9" width="25.33203125"/>
+    <col min="10" max="1025" width="8.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="23.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="n">
+    <row r="1" spans="1:7" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1">
         <v>42426</v>
       </c>
       <c r="B1" s="1"/>
@@ -522,7 +755,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -543,7 +776,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="121.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:7" ht="121.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -566,7 +799,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="143.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:7" ht="143.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -589,7 +822,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="104.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:7" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -610,10 +843,9 @@
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Standaard"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Standaard"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -621,26 +853,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="25.3775510204082"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="38.6632653061224"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="25.3775510204082"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.63775510204082"/>
+    <col min="1" max="6" width="25.33203125"/>
+    <col min="7" max="7" width="38.6640625"/>
+    <col min="8" max="9" width="25.33203125"/>
+    <col min="10" max="1025" width="8.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="23.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="n">
+    <row r="1" spans="1:7" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1">
         <v>42431</v>
       </c>
       <c r="B1" s="1"/>
@@ -650,7 +879,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -671,7 +900,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="121.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:7" ht="121.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -694,7 +923,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="143.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:7" ht="143.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -717,7 +946,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="104.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:7" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -738,37 +967,27 @@
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="25.3775510204082"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="38.6632653061224"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="25.3775510204082"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.63775510204082"/>
+    <col min="1" max="6" width="25.33203125"/>
+    <col min="7" max="7" width="38.6640625"/>
+    <col min="8" max="9" width="25.33203125"/>
+    <col min="10" max="1025" width="8.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="23.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="n">
+    <row r="1" spans="1:7" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1">
         <v>42433</v>
       </c>
       <c r="B1" s="1"/>
@@ -778,7 +997,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -799,7 +1018,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="121.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:7" ht="121.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -818,7 +1037,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="143.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:7" ht="143.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -831,7 +1050,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" customFormat="false" ht="104.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:7" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -848,37 +1067,29 @@
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="25.3775510204082"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="38.6632653061224"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="25.3775510204082"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.63775510204082"/>
+    <col min="1" max="6" width="25.33203125"/>
+    <col min="7" max="7" width="38.6640625"/>
+    <col min="8" max="9" width="25.33203125"/>
+    <col min="10" max="1025" width="8.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="23.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="n">
+    <row r="1" spans="1:7" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1">
         <v>42440</v>
       </c>
       <c r="B1" s="1"/>
@@ -888,7 +1099,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -909,7 +1120,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="121.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:7" ht="121.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -922,7 +1133,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" customFormat="false" ht="143.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:7" ht="143.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -937,7 +1148,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" customFormat="false" ht="104.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:7" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -954,36 +1165,28 @@
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="25.3775510204082"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="38.6632653061224"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="25.3775510204082"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.63775510204082"/>
+    <col min="1" max="6" width="25.33203125"/>
+    <col min="7" max="7" width="38.6640625"/>
+    <col min="8" max="9" width="25.33203125"/>
+    <col min="10" max="1025" width="8.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="23.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:7" ht="23.4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -994,7 +1197,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -1015,20 +1218,22 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="121.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:7" ht="121.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="5"/>
+      <c r="C3" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" customFormat="false" ht="143.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:7" ht="143.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -1041,7 +1246,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" customFormat="false" ht="104.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:7" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -1056,12 +1261,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/scrum/Dailyscrum.xlsx
+++ b/scrum/Dailyscrum.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11400919\Documents\GitHub\AppDev05_2016\scrum\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fred\Documents\GitHub\project-appdev\AppDev05_2016\scrum\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="989" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="989" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="42">
   <si>
     <t>Datum</t>
   </si>
@@ -165,6 +165,9 @@
   </si>
   <si>
     <t>Mockups desktop gemaakt + vervoersysteem, klein deel domeinklasse</t>
+  </si>
+  <si>
+    <t>Aanmaken desktop mockups</t>
   </si>
 </sst>
 </file>
@@ -271,9 +274,6 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="15" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -291,6 +291,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -646,78 +649,78 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="25.33203125"/>
-    <col min="7" max="7" width="38.6640625"/>
-    <col min="8" max="9" width="25.33203125"/>
-    <col min="10" max="1025" width="8.6640625"/>
+    <col min="1" max="6" width="25.28515625"/>
+    <col min="7" max="7" width="38.7109375"/>
+    <col min="8" max="9" width="25.28515625"/>
+    <col min="10" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="121.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:7" ht="121.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:7" ht="143.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" ht="143.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:7" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -736,108 +739,108 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="25.33203125"/>
-    <col min="7" max="7" width="38.6640625"/>
-    <col min="8" max="9" width="25.33203125"/>
-    <col min="10" max="1025" width="8.6640625"/>
+    <col min="1" max="6" width="25.28515625"/>
+    <col min="7" max="7" width="38.7109375"/>
+    <col min="8" max="9" width="25.28515625"/>
+    <col min="10" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1">
+    <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="7">
         <v>42426</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="121.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:7" ht="121.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="143.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:7" ht="143.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:7" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -860,108 +863,108 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="25.33203125"/>
-    <col min="7" max="7" width="38.6640625"/>
-    <col min="8" max="9" width="25.33203125"/>
-    <col min="10" max="1025" width="8.6640625"/>
+    <col min="1" max="6" width="25.28515625"/>
+    <col min="7" max="7" width="38.7109375"/>
+    <col min="8" max="9" width="25.28515625"/>
+    <col min="10" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1">
+    <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="7">
         <v>42431</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="121.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:7" ht="121.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="143.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:7" ht="143.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:7" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6" t="s">
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="6"/>
+      <c r="G5" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -976,92 +979,94 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:G1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="25.33203125"/>
-    <col min="7" max="7" width="38.6640625"/>
-    <col min="8" max="9" width="25.33203125"/>
-    <col min="10" max="1025" width="8.6640625"/>
+    <col min="1" max="6" width="25.28515625"/>
+    <col min="7" max="7" width="38.7109375"/>
+    <col min="8" max="9" width="25.28515625"/>
+    <col min="10" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1">
+    <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="7">
         <v>42433</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="121.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:7" ht="121.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5" t="s">
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="143.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:7" ht="143.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:7" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1077,89 +1082,91 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="25.33203125"/>
-    <col min="7" max="7" width="38.6640625"/>
-    <col min="8" max="9" width="25.33203125"/>
-    <col min="10" max="1025" width="8.6640625"/>
+    <col min="1" max="6" width="25.28515625"/>
+    <col min="7" max="7" width="38.7109375"/>
+    <col min="8" max="9" width="25.28515625"/>
+    <col min="10" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1">
+    <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="7">
         <v>42440</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="121.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:7" ht="121.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:7" ht="143.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" ht="143.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:7" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1175,87 +1182,89 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="25.33203125"/>
-    <col min="7" max="7" width="38.6640625"/>
-    <col min="8" max="9" width="25.33203125"/>
-    <col min="10" max="1025" width="8.6640625"/>
+    <col min="1" max="6" width="25.28515625"/>
+    <col min="7" max="7" width="38.7109375"/>
+    <col min="8" max="9" width="25.28515625"/>
+    <col min="10" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="121.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:7" ht="121.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:7" ht="143.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="143.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:7" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/scrum/Dailyscrum.xlsx
+++ b/scrum/Dailyscrum.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fred\Documents\GitHub\project-appdev\AppDev05_2016\scrum\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bram\Documents\GitHub\project-appdev\scrum\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="989" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="989" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="46">
   <si>
     <t>Datum</t>
   </si>
@@ -168,6 +168,18 @@
   </si>
   <si>
     <t>Aanmaken desktop mockups</t>
+  </si>
+  <si>
+    <t>statistiekenpagina en homepage mockup</t>
+  </si>
+  <si>
+    <t>UML class diagram</t>
+  </si>
+  <si>
+    <t>templates</t>
+  </si>
+  <si>
+    <t>mockup evenementen lijst</t>
   </si>
 </sst>
 </file>
@@ -297,7 +309,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -381,9 +393,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Kantoor">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -421,7 +433,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kantoor">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -493,7 +505,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kantoor">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -649,15 +661,15 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="6" width="25.28515625"/>
-    <col min="7" max="7" width="38.7109375"/>
-    <col min="8" max="9" width="25.28515625"/>
-    <col min="10" max="1025" width="8.7109375"/>
+    <col min="1" max="6" width="25.33203125"/>
+    <col min="7" max="7" width="38.6640625"/>
+    <col min="8" max="9" width="25.33203125"/>
+    <col min="10" max="1025" width="8.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="23.4" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -668,7 +680,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -689,7 +701,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="121.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="121.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -700,7 +712,7 @@
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:7" ht="143.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="143.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -711,7 +723,7 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -739,15 +751,15 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="6" width="25.28515625"/>
-    <col min="7" max="7" width="38.7109375"/>
-    <col min="8" max="9" width="25.28515625"/>
-    <col min="10" max="1025" width="8.7109375"/>
+    <col min="1" max="6" width="25.33203125"/>
+    <col min="7" max="7" width="38.6640625"/>
+    <col min="8" max="9" width="25.33203125"/>
+    <col min="10" max="1025" width="8.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="23.4" x14ac:dyDescent="0.3">
       <c r="A1" s="7">
         <v>42426</v>
       </c>
@@ -758,7 +770,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -779,7 +791,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="121.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="121.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -802,7 +814,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="143.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="143.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -825,7 +837,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -860,18 +872,18 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="6" width="25.28515625"/>
-    <col min="7" max="7" width="38.7109375"/>
-    <col min="8" max="9" width="25.28515625"/>
-    <col min="10" max="1025" width="8.7109375"/>
+    <col min="1" max="6" width="25.33203125"/>
+    <col min="7" max="7" width="38.6640625"/>
+    <col min="8" max="9" width="25.33203125"/>
+    <col min="10" max="1025" width="8.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="23.4" x14ac:dyDescent="0.3">
       <c r="A1" s="7">
         <v>42431</v>
       </c>
@@ -882,7 +894,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -903,7 +915,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="121.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="121.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -926,7 +938,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="143.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="143.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -949,7 +961,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -980,18 +992,18 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="6" width="25.28515625"/>
-    <col min="7" max="7" width="38.7109375"/>
-    <col min="8" max="9" width="25.28515625"/>
-    <col min="10" max="1025" width="8.7109375"/>
+    <col min="1" max="6" width="25.33203125"/>
+    <col min="7" max="7" width="38.6640625"/>
+    <col min="8" max="9" width="25.33203125"/>
+    <col min="10" max="1025" width="8.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="23.4" x14ac:dyDescent="0.3">
       <c r="A1" s="7">
         <v>42433</v>
       </c>
@@ -1002,7 +1014,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -1023,7 +1035,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="121.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="121.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1033,7 +1045,9 @@
       <c r="C3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="4"/>
+      <c r="D3" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4" t="s">
         <v>29</v>
@@ -1042,7 +1056,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="143.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="143.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -1050,12 +1064,16 @@
         <v>33</v>
       </c>
       <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+      <c r="F4" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -1063,9 +1081,13 @@
         <v>11</v>
       </c>
       <c r="C5" s="6"/>
-      <c r="D5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
+      <c r="F5" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="G5" s="5"/>
     </row>
   </sheetData>
@@ -1082,18 +1104,18 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="6" width="25.28515625"/>
-    <col min="7" max="7" width="38.7109375"/>
-    <col min="8" max="9" width="25.28515625"/>
-    <col min="10" max="1025" width="8.7109375"/>
+    <col min="1" max="6" width="25.33203125"/>
+    <col min="7" max="7" width="38.6640625"/>
+    <col min="8" max="9" width="25.33203125"/>
+    <col min="10" max="1025" width="8.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="23.4" x14ac:dyDescent="0.3">
       <c r="A1" s="7">
         <v>42440</v>
       </c>
@@ -1104,7 +1126,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -1125,7 +1147,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="121.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="121.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1133,12 +1155,16 @@
         <v>34</v>
       </c>
       <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
+      <c r="D3" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
+      <c r="F3" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:7" ht="143.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="143.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -1148,14 +1174,18 @@
       <c r="C4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+      <c r="F4" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="G4" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -1182,18 +1212,18 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="6" width="25.28515625"/>
-    <col min="7" max="7" width="38.7109375"/>
-    <col min="8" max="9" width="25.28515625"/>
-    <col min="10" max="1025" width="8.7109375"/>
+    <col min="1" max="6" width="25.33203125"/>
+    <col min="7" max="7" width="38.6640625"/>
+    <col min="8" max="9" width="25.33203125"/>
+    <col min="10" max="1025" width="8.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="23.4" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1204,7 +1234,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -1225,7 +1255,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="121.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="121.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1235,14 +1265,18 @@
       <c r="C3" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="4"/>
+      <c r="D3" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
+      <c r="F3" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="G3" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="143.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="143.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -1255,7 +1289,7 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>

--- a/scrum/Dailyscrum.xlsx
+++ b/scrum/Dailyscrum.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bram\Documents\GitHub\project-appdev\scrum\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11400982\Documents\GitHub\AppDev05_2016\scrum\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="989" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="989" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="50">
   <si>
     <t>Datum</t>
   </si>
@@ -180,6 +180,18 @@
   </si>
   <si>
     <t>mockup evenementen lijst</t>
+  </si>
+  <si>
+    <t>mockup desktop app</t>
+  </si>
+  <si>
+    <t>Mensen helpen met azure</t>
+  </si>
+  <si>
+    <t>ZIEK</t>
+  </si>
+  <si>
+    <t>Mockups maken</t>
   </si>
 </sst>
 </file>
@@ -309,7 +321,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -393,9 +405,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Kantoor">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -433,7 +445,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Kantoor">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -505,7 +517,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Kantoor">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -661,15 +673,15 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="25.33203125"/>
-    <col min="7" max="7" width="38.6640625"/>
-    <col min="8" max="9" width="25.33203125"/>
-    <col min="10" max="1025" width="8.6640625"/>
+    <col min="1" max="6" width="25.28515625"/>
+    <col min="7" max="7" width="38.7109375"/>
+    <col min="8" max="9" width="25.28515625"/>
+    <col min="10" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -680,7 +692,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -701,7 +713,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="121.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="121.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -712,7 +724,7 @@
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:7" ht="143.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="143.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -723,7 +735,7 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -751,15 +763,15 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="25.33203125"/>
-    <col min="7" max="7" width="38.6640625"/>
-    <col min="8" max="9" width="25.33203125"/>
-    <col min="10" max="1025" width="8.6640625"/>
+    <col min="1" max="6" width="25.28515625"/>
+    <col min="7" max="7" width="38.7109375"/>
+    <col min="8" max="9" width="25.28515625"/>
+    <col min="10" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A1" s="7">
         <v>42426</v>
       </c>
@@ -770,7 +782,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -791,7 +803,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="121.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="121.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -814,7 +826,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="143.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="143.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -837,7 +849,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -875,15 +887,15 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="25.33203125"/>
-    <col min="7" max="7" width="38.6640625"/>
-    <col min="8" max="9" width="25.33203125"/>
-    <col min="10" max="1025" width="8.6640625"/>
+    <col min="1" max="6" width="25.28515625"/>
+    <col min="7" max="7" width="38.7109375"/>
+    <col min="8" max="9" width="25.28515625"/>
+    <col min="10" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A1" s="7">
         <v>42431</v>
       </c>
@@ -894,7 +906,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -915,7 +927,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="121.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="121.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -938,7 +950,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="143.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="143.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -961,7 +973,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -995,15 +1007,15 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="25.33203125"/>
-    <col min="7" max="7" width="38.6640625"/>
-    <col min="8" max="9" width="25.33203125"/>
-    <col min="10" max="1025" width="8.6640625"/>
+    <col min="1" max="6" width="25.28515625"/>
+    <col min="7" max="7" width="38.7109375"/>
+    <col min="8" max="9" width="25.28515625"/>
+    <col min="10" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A1" s="7">
         <v>42433</v>
       </c>
@@ -1014,7 +1026,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -1035,7 +1047,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="121.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="121.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1056,7 +1068,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="143.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="143.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -1073,7 +1085,7 @@
       </c>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -1103,19 +1115,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="25.33203125"/>
-    <col min="7" max="7" width="38.6640625"/>
-    <col min="8" max="9" width="25.33203125"/>
-    <col min="10" max="1025" width="8.6640625"/>
+    <col min="1" max="6" width="25.28515625"/>
+    <col min="7" max="7" width="38.7109375"/>
+    <col min="8" max="9" width="25.28515625"/>
+    <col min="10" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A1" s="7">
         <v>42440</v>
       </c>
@@ -1126,7 +1138,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -1147,7 +1159,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="121.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="121.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1158,13 +1170,15 @@
       <c r="D3" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="F3" s="4" t="s">
         <v>44</v>
       </c>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:7" ht="143.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="143.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -1177,7 +1191,9 @@
       <c r="D4" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="F4" s="4" t="s">
         <v>45</v>
       </c>
@@ -1185,7 +1201,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -1211,19 +1227,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="25.33203125"/>
-    <col min="7" max="7" width="38.6640625"/>
-    <col min="8" max="9" width="25.33203125"/>
-    <col min="10" max="1025" width="8.6640625"/>
+    <col min="1" max="6" width="25.28515625"/>
+    <col min="7" max="7" width="38.7109375"/>
+    <col min="8" max="9" width="25.28515625"/>
+    <col min="10" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1234,7 +1250,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -1255,7 +1271,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="121.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="121.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1268,7 +1284,9 @@
       <c r="D3" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="F3" s="4" t="s">
         <v>45</v>
       </c>
@@ -1276,7 +1294,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="143.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="143.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -1285,11 +1303,13 @@
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>

--- a/scrum/Dailyscrum.xlsx
+++ b/scrum/Dailyscrum.xlsx
@@ -14,7 +14,8 @@
     <sheet name="04-03-2016" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="11-03-2016" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="18-03-2016" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="xx-03-2016" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="15-03-2016" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="xx-04-2016" sheetId="8" state="visible" r:id="rId9"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="52">
   <si>
     <t xml:space="preserve">Datum</t>
   </si>
@@ -191,7 +192,32 @@
     <t xml:space="preserve">Mensen helpen met azure</t>
   </si>
   <si>
-    <t xml:space="preserve">Taak 2 &amp; 3 ingezonden</t>
+    <t xml:space="preserve">Taak 2 &amp; 3 ingezonden
+Vorige doelstelling zijn nog niet gedaan!</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Azure handleiding doornemen
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>
+Code onderdelen voorbereiden
+Starten met de code</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -200,9 +226,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="D\/MMM\/YY"/>
+    <numFmt numFmtId="165" formatCode="D/MMM/YY"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -259,6 +285,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -441,10 +473,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="25.7040816326531"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="39.3112244897959"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="25.7040816326531"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.75"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="26.0255102040816"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="39.9591836734694"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="26.0255102040816"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.85714285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -539,10 +571,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="25.7040816326531"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="39.3112244897959"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="25.7040816326531"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.75"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="26.0255102040816"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="39.9591836734694"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="26.0255102040816"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.85714285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -667,10 +699,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="25.7040816326531"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="39.3112244897959"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="25.7040816326531"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.75"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="26.0255102040816"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="39.9591836734694"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="26.0255102040816"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.85714285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -795,10 +827,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="25.7040816326531"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="39.3112244897959"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="25.7040816326531"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.75"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="26.0255102040816"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="39.9591836734694"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="26.0255102040816"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.85714285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -915,10 +947,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="25.7040816326531"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="39.3112244897959"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="25.7040816326531"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.75"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="26.0255102040816"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="39.9591836734694"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="26.0255102040816"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.85714285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1030,15 +1062,15 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="25.7040816326531"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="39.3112244897959"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="25.7040816326531"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.75"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="26.0255102040816"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="39.9591836734694"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="26.0255102040816"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.85714285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1144,20 +1176,20 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="25.7040816326531"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="39.3112244897959"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="25.7040816326531"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.75"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="26.0255102040816"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="39.9591836734694"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="26.0255102040816"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.85714285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+      <c r="A1" s="1" t="n">
+        <v>42444</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1194,6 +1226,108 @@
       <c r="B3" s="5" t="s">
         <v>50</v>
       </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" customFormat="false" ht="143.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" customFormat="false" ht="104.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="26.0255102040816"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="39.9591836734694"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="26.0255102040816"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.85714285714286"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="121.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>

--- a/scrum/Dailyscrum.xlsx
+++ b/scrum/Dailyscrum.xlsx
@@ -1,23 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11400982\Documents\GitHub\AppDev05_2016\scrum\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="989" activeTab="10"/>
   </bookViews>
   <sheets>
-    <sheet name="Template" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="26-02-2016" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="02-03-2016" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="04-03-2016" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="11-03-2016" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="18-03-2016" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="15-03-2016" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="xx-04-2016" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="Template" sheetId="1" r:id="rId1"/>
+    <sheet name="26-02-2016" sheetId="2" r:id="rId2"/>
+    <sheet name="02-03-2016" sheetId="3" r:id="rId3"/>
+    <sheet name="04-03-2016" sheetId="4" r:id="rId4"/>
+    <sheet name="11-03-2016" sheetId="5" r:id="rId5"/>
+    <sheet name="18-03-2016" sheetId="6" r:id="rId6"/>
+    <sheet name="15-03-2016" sheetId="7" r:id="rId7"/>
+    <sheet name="1-04-2016" sheetId="8" r:id="rId8"/>
+    <sheet name="8-04-2016" sheetId="9" r:id="rId9"/>
+    <sheet name="15-04-2016" sheetId="10" r:id="rId10"/>
+    <sheet name="22-04-2016" sheetId="11" r:id="rId11"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -27,30 +34,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="52">
-  <si>
-    <t xml:space="preserve">Datum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rudy Mas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Joran Claessens</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kevin Strijbos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sacha Reyskens</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bram Van Vleymen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frédérique Van Wonterghem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wat heb je gedaan?</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="62">
+  <si>
+    <t>Datum</t>
+  </si>
+  <si>
+    <t>Rudy Mas</t>
+  </si>
+  <si>
+    <t>Joran Claessens</t>
+  </si>
+  <si>
+    <t>Kevin Strijbos</t>
+  </si>
+  <si>
+    <t>Sacha Reyskens</t>
+  </si>
+  <si>
+    <t>Bram Van Vleymen</t>
+  </si>
+  <si>
+    <t>Frédérique Van Wonterghem</t>
+  </si>
+  <si>
+    <t>Wat heb je gedaan?</t>
   </si>
   <si>
     <t xml:space="preserve">Wat ga je doen? </t>
@@ -59,140 +66,140 @@
     <t xml:space="preserve">Wat zijn je problemen? </t>
   </si>
   <si>
-    <t xml:space="preserve">GitHub Bekeken</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">scope.md geschreven</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Github volledig doorlopen, snap het nu perfect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Github bekeken, scum template gemaakt.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GitHub bekeken</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Use Case “Eventlijst van standpunt student”
+    <t>GitHub Bekeken</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>scope.md geschreven</t>
+  </si>
+  <si>
+    <t>Github volledig doorlopen, snap het nu perfect</t>
+  </si>
+  <si>
+    <t>Github bekeken, scum template gemaakt.</t>
+  </si>
+  <si>
+    <t>GitHub bekeken</t>
+  </si>
+  <si>
+    <t>Use Case “Eventlijst van standpunt student”
 Beschrijving Pagina “Eventlijst”
 Beschrijving JavaScript / Jquery (Bootstrap)
 Facebook Info Doornemen</t>
   </si>
   <si>
-    <t xml:space="preserve">Use case “vervoersysteem”, beschrijving websitepagina “Vervoersysteem”, beschrijving HTML5 / CSS3, doornemen cursus Facebook API</t>
-  </si>
-  <si>
-    <t xml:space="preserve">use case "eventrating, student kan een event een waardering geven", gitignore onderzoeken, sql server in de cloud onderzoeken, beschrijving home/newsfeed pagina, beschrijving asp.net mvc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Use case controle van organisatie + reviews, Beschrijving van profiel pagina organisatie, Bestuderen van ADO.Net SQL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Use case Aanwezigheidsstatistieken (De raadpleging van de aanwezigheid). Statistiekenpagina beschrijven. Twitter API doornemen en beschrijven. Facebook api crusus doornemen.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Use case maken over het filteringsysteem en mutual friends, een paginabeschrijving over het filteringsysteem en het de Facebook API bespreken</t>
-  </si>
-  <si>
-    <t xml:space="preserve">use case: Evenementenlijst + Diagram
+    <t>Use case “vervoersysteem”, beschrijving websitepagina “Vervoersysteem”, beschrijving HTML5 / CSS3, doornemen cursus Facebook API</t>
+  </si>
+  <si>
+    <t>use case "eventrating, student kan een event een waardering geven", gitignore onderzoeken, sql server in de cloud onderzoeken, beschrijving home/newsfeed pagina, beschrijving asp.net mvc</t>
+  </si>
+  <si>
+    <t>Use case controle van organisatie + reviews, Beschrijving van profiel pagina organisatie, Bestuderen van ADO.Net SQL</t>
+  </si>
+  <si>
+    <t>Use case Aanwezigheidsstatistieken (De raadpleging van de aanwezigheid). Statistiekenpagina beschrijven. Twitter API doornemen en beschrijven. Facebook api crusus doornemen.</t>
+  </si>
+  <si>
+    <t>Use case maken over het filteringsysteem en mutual friends, een paginabeschrijving over het filteringsysteem en het de Facebook API bespreken</t>
+  </si>
+  <si>
+    <t>use case: Evenementenlijst + Diagram
 Beschrijving pagina: Evenementenlijst
 Beschrijving taal: Bootstrap</t>
   </si>
   <si>
-    <t xml:space="preserve">Use case “vervoersysteem”, beschrijving websitepagina “Vervoersysteem”, beschrijving HTML5 / CSS3, cursus Facebook API doorgenomen</t>
+    <t>Use case “vervoersysteem”, beschrijving websitepagina “Vervoersysteem”, beschrijving HTML5 / CSS3, cursus Facebook API doorgenomen</t>
   </si>
   <si>
     <t xml:space="preserve">use case controle op reviews/organisaties, beschrijving ado.net en sql, beschrijving van beide pagina's. </t>
   </si>
   <si>
-    <t xml:space="preserve">Use cases verwerken en uniform maken
+    <t>Use cases verwerken en uniform maken
 Docx bestanden omzetten naar MD bestanden</t>
   </si>
   <si>
-    <t xml:space="preserve">scope.md aanpassen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">contextdiagram maken, agendapunten voorbereiden en werkjes controleren</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Use cases afmaken, diagram maken, scrum invullen (nu bezig), samenvoegen van alle taalbeschrijvingen.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visio diagrammen samenvoegen en generaliseren + inleiding database</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Afmaken Facebook API + bundelen paginabeschrijvingen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">docx bestanden omgezet naar md.
+    <t>scope.md aanpassen</t>
+  </si>
+  <si>
+    <t>contextdiagram maken, agendapunten voorbereiden en werkjes controleren</t>
+  </si>
+  <si>
+    <t>Use cases afmaken, diagram maken, scrum invullen (nu bezig), samenvoegen van alle taalbeschrijvingen.</t>
+  </si>
+  <si>
+    <t>Visio diagrammen samenvoegen en generaliseren + inleiding database</t>
+  </si>
+  <si>
+    <t>Afmaken Facebook API + bundelen paginabeschrijvingen</t>
+  </si>
+  <si>
+    <t>docx bestanden omgezet naar md.
 SUC nagekeken en samengevoegd in 1 bestand</t>
   </si>
   <si>
-    <t xml:space="preserve">SUC nagekeken + bestanden overlopen op fouten</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UML Deployment diagram onderzoeken
+    <t>SUC nagekeken + bestanden overlopen op fouten</t>
+  </si>
+  <si>
+    <t>UML Deployment diagram onderzoeken
 Eerste schetsen van de website mockups</t>
   </si>
   <si>
-    <t xml:space="preserve">statistiekenpagina en homepage mockup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">templates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bestand “analyse.pdf” verzonden naar EPOS
+    <t>statistiekenpagina en homepage mockup</t>
+  </si>
+  <si>
+    <t>templates</t>
+  </si>
+  <si>
+    <t>Bestand “analyse.pdf” verzonden naar EPOS
 Verslag 04/02/2016 gemaakt
 Website ‘Eerste Test Design’</t>
   </si>
   <si>
-    <t xml:space="preserve">ZIEK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bootstrap course “Code School”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mockups maken van desktop app, starten aan domain modelling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UML class diagram</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mockups maken</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mockup evenementen lijst</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aanmaken desktop mockups</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kennis Bootstrap ontbreekt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mockups gemaakt: Login + Registreren + Filtering Gebruikers + Aansprakelijkheid
+    <t>ZIEK</t>
+  </si>
+  <si>
+    <t>Bootstrap course “Code School”</t>
+  </si>
+  <si>
+    <t>Mockups maken van desktop app, starten aan domain modelling</t>
+  </si>
+  <si>
+    <t>UML class diagram</t>
+  </si>
+  <si>
+    <t>Mockups maken</t>
+  </si>
+  <si>
+    <t>mockup evenementen lijst</t>
+  </si>
+  <si>
+    <t>Aanmaken desktop mockups</t>
+  </si>
+  <si>
+    <t>Kennis Bootstrap ontbreekt</t>
+  </si>
+  <si>
+    <t>Mockups gemaakt: Login + Registreren + Filtering Gebruikers + Aansprakelijkheid
 Architecture.png (UML Deployment Diagram) gemaakt
 Mockups samengebracht in mockups.md</t>
   </si>
   <si>
-    <t xml:space="preserve">Mockups desktop gemaakt + vervoersysteem, klein deel domeinklasse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mockup desktop app</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Azure handleiding doornemen
+    <t>Mockups desktop gemaakt + vervoersysteem, klein deel domeinklasse</t>
+  </si>
+  <si>
+    <t>mockup desktop app</t>
+  </si>
+  <si>
+    <t>Azure handleiding doornemen
 Code onderdelen voorbereiden</t>
   </si>
   <si>
-    <t xml:space="preserve">Mensen helpen met azure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taak 2 &amp; 3 ingezonden
+    <t>Mensen helpen met azure</t>
+  </si>
+  <si>
+    <t>Taak 2 &amp; 3 ingezonden
 Vorige doelstelling zijn nog niet gedaan!</t>
   </si>
   <si>
@@ -204,8 +211,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>Azure handleiding doornemen
-</t>
+      <t>Azure handleiding doornemen</t>
     </r>
     <r>
       <rPr>
@@ -214,42 +220,52 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>
-Code onderdelen voorbereiden
+      <t>Code onderdelen voorbereiden
 Starten met de code</t>
     </r>
+  </si>
+  <si>
+    <t>Klein deel van de code beschreven</t>
+  </si>
+  <si>
+    <t>Verder werken aan huidige code</t>
+  </si>
+  <si>
+    <t>Verder gewerkt aan de code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desktop applicatie gui pages </t>
+  </si>
+  <si>
+    <t>Gui afgewerkt (huidige versie)</t>
+  </si>
+  <si>
+    <t>Beginnen aan de functies</t>
+  </si>
+  <si>
+    <t>Functies geschreven</t>
+  </si>
+  <si>
+    <t>Web api schrijver voor de desktop</t>
+  </si>
+  <si>
+    <t>Code voor FAQ afgewerkt</t>
+  </si>
+  <si>
+    <t>Beginnen met design desktop</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="D/MMM/YY"/>
-  </numFmts>
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="18"/>
@@ -308,95 +324,74 @@
     </fill>
   </fills>
   <borders count="3">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="15" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -455,31 +450,305 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+  <a:themeElements>
+    <a:clrScheme name="Kantoor">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Kantoor">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Kantoor">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="26.0255102040816"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="39.9591836734694"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="26.0255102040816"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.85714285714286"/>
+    <col min="1" max="6" width="26"/>
+    <col min="7" max="7" width="40"/>
+    <col min="8" max="9" width="26"/>
+    <col min="10" max="1025" width="8.85546875"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -490,7 +759,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -511,7 +780,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="121.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:7" ht="121.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -522,7 +791,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" customFormat="false" ht="143.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:7" ht="143.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -533,7 +802,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" customFormat="false" ht="104.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:7" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -548,38 +817,33 @@
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="26.0255102040816"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="39.9591836734694"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="26.0255102040816"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.85714285714286"/>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" customWidth="1"/>
+    <col min="3" max="3" width="39.85546875" customWidth="1"/>
+    <col min="4" max="4" width="31" customWidth="1"/>
+    <col min="5" max="5" width="38.42578125" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" customWidth="1"/>
+    <col min="7" max="7" width="30.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="n">
-        <v>42426</v>
+    <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -588,7 +852,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:7" ht="93.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -609,65 +873,39 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="121.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:7" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="143.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>56</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:7" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>18</v>
-      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
       <c r="E4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="104.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>57</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>11</v>
-      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
@@ -676,10 +914,223 @@
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="41.5703125" customWidth="1"/>
+    <col min="3" max="3" width="35.5703125" customWidth="1"/>
+    <col min="4" max="4" width="50.42578125" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" customWidth="1"/>
+    <col min="6" max="6" width="35.5703125" customWidth="1"/>
+    <col min="7" max="7" width="29" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:7" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="6" width="26"/>
+    <col min="7" max="7" width="40"/>
+    <col min="8" max="9" width="26"/>
+    <col min="10" max="1025" width="8.85546875"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
+        <v>42426</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="121.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="143.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Standaard"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Standaard"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -687,26 +1138,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="26.0255102040816"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="39.9591836734694"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="26.0255102040816"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.85714285714286"/>
+    <col min="1" max="6" width="26"/>
+    <col min="7" max="7" width="40"/>
+    <col min="8" max="9" width="26"/>
+    <col min="10" max="1025" width="8.85546875"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="n">
+    <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
         <v>42431</v>
       </c>
       <c r="B1" s="1"/>
@@ -716,7 +1164,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -737,7 +1185,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="121.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:7" ht="121.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -760,7 +1208,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="143.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:7" ht="143.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -783,7 +1231,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="104.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:7" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -804,37 +1252,29 @@
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="26.0255102040816"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="39.9591836734694"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="26.0255102040816"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.85714285714286"/>
+    <col min="1" max="6" width="26"/>
+    <col min="7" max="7" width="40"/>
+    <col min="8" max="9" width="26"/>
+    <col min="10" max="1025" width="8.85546875"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="n">
+    <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
         <v>42433</v>
       </c>
       <c r="B1" s="1"/>
@@ -844,7 +1284,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -865,7 +1305,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="121.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:7" ht="121.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -886,7 +1326,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="143.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:7" ht="143.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -903,7 +1343,7 @@
       </c>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" customFormat="false" ht="104.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:7" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -924,37 +1364,29 @@
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="26.0255102040816"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="39.9591836734694"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="26.0255102040816"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.85714285714286"/>
+    <col min="1" max="6" width="26"/>
+    <col min="7" max="7" width="40"/>
+    <col min="8" max="9" width="26"/>
+    <col min="10" max="1025" width="8.85546875"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="n">
+    <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
         <v>42440</v>
       </c>
       <c r="B1" s="1"/>
@@ -964,7 +1396,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -985,7 +1417,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="121.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:7" ht="121.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -1004,7 +1436,7 @@
       </c>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" customFormat="false" ht="143.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:7" ht="143.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -1027,7 +1459,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="104.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:7" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -1044,37 +1476,29 @@
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="26.0255102040816"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="39.9591836734694"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="26.0255102040816"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.85714285714286"/>
+    <col min="1" max="6" width="26"/>
+    <col min="7" max="7" width="40"/>
+    <col min="8" max="9" width="26"/>
+    <col min="10" max="1025" width="8.85546875"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="n">
+    <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
         <v>42447</v>
       </c>
       <c r="B1" s="1"/>
@@ -1084,7 +1508,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -1105,7 +1529,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="121.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:7" ht="121.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -1128,7 +1552,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="143.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:7" ht="143.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -1143,7 +1567,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" customFormat="false" ht="104.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:7" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -1158,37 +1582,29 @@
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="26.0255102040816"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="39.9591836734694"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="26.0255102040816"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.85714285714286"/>
+    <col min="1" max="6" width="26"/>
+    <col min="7" max="7" width="40"/>
+    <col min="8" max="9" width="26"/>
+    <col min="10" max="1025" width="8.85546875"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="n">
+    <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
         <v>42444</v>
       </c>
       <c r="B1" s="1"/>
@@ -1198,7 +1614,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -1219,7 +1635,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="121.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:7" ht="121.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -1228,11 +1644,13 @@
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="E3" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" customFormat="false" ht="143.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:7" ht="143.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -1241,11 +1659,13 @@
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="E4" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" customFormat="false" ht="104.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:7" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -1262,36 +1682,29 @@
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="26.0255102040816"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="39.9591836734694"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="26.0255102040816"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.85714285714286"/>
+    <col min="1" max="1" width="8.140625" customWidth="1"/>
+    <col min="2" max="6" width="26"/>
+    <col min="7" max="7" width="40"/>
+    <col min="8" max="9" width="26"/>
+    <col min="10" max="1025" width="8.85546875"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1302,7 +1715,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -1323,29 +1736,33 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="121.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:7" ht="121.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="E3" s="5" t="s">
+        <v>60</v>
+      </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" customFormat="false" ht="143.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:7" ht="143.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="E4" s="5" t="s">
+        <v>61</v>
+      </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" customFormat="false" ht="104.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:7" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -1360,12 +1777,103 @@
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" customWidth="1"/>
+    <col min="3" max="3" width="32.42578125" customWidth="1"/>
+    <col min="4" max="4" width="32.85546875" customWidth="1"/>
+    <col min="5" max="5" width="29.5703125" customWidth="1"/>
+    <col min="6" max="6" width="29.140625" customWidth="1"/>
+    <col min="7" max="7" width="32.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/scrum/Dailyscrum.xlsx
+++ b/scrum/Dailyscrum.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16922"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="989" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="989" firstSheet="7" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,11 @@
     <sheet name="11-03-2016" sheetId="5" r:id="rId5"/>
     <sheet name="18-03-2016" sheetId="6" r:id="rId6"/>
     <sheet name="15-03-2016" sheetId="7" r:id="rId7"/>
-    <sheet name="1-04-2016" sheetId="8" r:id="rId8"/>
-    <sheet name="8-04-2016" sheetId="9" r:id="rId9"/>
-    <sheet name="15-04-2016" sheetId="10" r:id="rId10"/>
-    <sheet name="22-04-2016" sheetId="11" r:id="rId11"/>
+    <sheet name="20-04-2016" sheetId="10" r:id="rId8"/>
+    <sheet name="22-04-2016" sheetId="11" r:id="rId9"/>
+    <sheet name="24-04-2016" sheetId="12" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="171026" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="64">
   <si>
     <t>Datum</t>
   </si>
@@ -196,11 +195,17 @@
 Code onderdelen voorbereiden</t>
   </si>
   <si>
+    <t>Azure opzetten</t>
+  </si>
+  <si>
     <t>Mensen helpen met azure</t>
   </si>
   <si>
     <t>Taak 2 &amp; 3 ingezonden
 Vorige doelstelling zijn nog niet gedaan!</t>
+  </si>
+  <si>
+    <t>Klein deel van de code beschreven</t>
   </si>
   <si>
     <r>
@@ -225,41 +230,41 @@
     </r>
   </si>
   <si>
-    <t>Klein deel van de code beschreven</t>
-  </si>
-  <si>
     <t>Verder werken aan huidige code</t>
   </si>
   <si>
-    <t>Verder gewerkt aan de code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desktop applicatie gui pages </t>
+    <t>Modellen gecreëerd + richtlijnen</t>
   </si>
   <si>
     <t>Gui afgewerkt (huidige versie)</t>
   </si>
   <si>
+    <t>Helpen met FAQ, database connectie leggen</t>
+  </si>
+  <si>
     <t>Beginnen aan de functies</t>
   </si>
   <si>
     <t>Functies geschreven</t>
   </si>
   <si>
+    <t>Nieuws sectie aanmaken</t>
+  </si>
+  <si>
     <t>Web api schrijver voor de desktop</t>
   </si>
   <si>
-    <t>Code voor FAQ afgewerkt</t>
-  </si>
-  <si>
-    <t>Beginnen met design desktop</t>
+    <t>Nieuws sectie gecreëerd</t>
+  </si>
+  <si>
+    <t>Organisaties implementeren</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -365,9 +370,6 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="15" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -385,6 +387,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -472,9 +477,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Kantoor">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -512,7 +517,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kantoor">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -547,6 +552,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -582,9 +604,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kantoor">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -740,7 +779,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="6" width="26"/>
     <col min="7" max="7" width="40"/>
@@ -748,70 +787,70 @@
     <col min="10" max="1025" width="8.85546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="23.25">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:7" ht="18.75">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="121.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:7" ht="121.9" customHeight="1">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:7" ht="143.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" ht="143.44999999999999" customHeight="1">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:7" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" ht="104.45" customHeight="1">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -826,184 +865,92 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" customWidth="1"/>
-    <col min="3" max="3" width="39.85546875" customWidth="1"/>
-    <col min="4" max="4" width="31" customWidth="1"/>
-    <col min="5" max="5" width="38.42578125" customWidth="1"/>
-    <col min="6" max="6" width="22.28515625" customWidth="1"/>
-    <col min="7" max="7" width="30.42578125" customWidth="1"/>
+    <col min="2" max="2" width="31.140625" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" customWidth="1"/>
+    <col min="4" max="4" width="25.5703125" customWidth="1"/>
+    <col min="5" max="5" width="25.42578125" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" customWidth="1"/>
+    <col min="7" max="7" width="27.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="23.25">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:7" ht="112.5">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:7" ht="75">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:7" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" ht="56.25">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" ht="75">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="41.5703125" customWidth="1"/>
-    <col min="3" max="3" width="35.5703125" customWidth="1"/>
-    <col min="4" max="4" width="50.42578125" customWidth="1"/>
-    <col min="5" max="5" width="32.42578125" customWidth="1"/>
-    <col min="6" max="6" width="35.5703125" customWidth="1"/>
-    <col min="7" max="7" width="29" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:7" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1021,7 +968,7 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="6" width="26"/>
     <col min="7" max="7" width="40"/>
@@ -1029,100 +976,100 @@
     <col min="10" max="1025" width="8.85546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1" spans="1:7" ht="23.25">
+      <c r="A1" s="7">
         <v>42426</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:7" ht="18.75">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="121.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:7" ht="121.9" customHeight="1">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="143.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:7" ht="143.44999999999999" customHeight="1">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:7" ht="104.45" customHeight="1">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1145,7 +1092,7 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="6" width="26"/>
     <col min="7" max="7" width="40"/>
@@ -1153,100 +1100,100 @@
     <col min="10" max="1025" width="8.85546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1" spans="1:7" ht="23.25">
+      <c r="A1" s="7">
         <v>42431</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:7" ht="18.75">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="121.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:7" ht="121.9" customHeight="1">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="143.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:7" ht="143.44999999999999" customHeight="1">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:7" ht="104.45" customHeight="1">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6" t="s">
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="6"/>
+      <c r="G5" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1265,7 +1212,7 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="6" width="26"/>
     <col min="7" max="7" width="40"/>
@@ -1273,92 +1220,92 @@
     <col min="10" max="1025" width="8.85546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1" spans="1:7" ht="23.25">
+      <c r="A1" s="7">
         <v>42433</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:7" ht="18.75">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="121.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:7" ht="121.9" customHeight="1">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5" t="s">
+      <c r="E3" s="4"/>
+      <c r="F3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="143.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:7" ht="143.44999999999999" customHeight="1">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5" t="s">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5" t="s">
+      <c r="E4" s="4"/>
+      <c r="F4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:7" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" ht="104.45" customHeight="1">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="6" t="s">
+      <c r="C5" s="6"/>
+      <c r="D5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6" t="s">
+      <c r="E5" s="5"/>
+      <c r="F5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="6"/>
+      <c r="G5" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1377,7 +1324,7 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="6" width="26"/>
     <col min="7" max="7" width="40"/>
@@ -1385,92 +1332,92 @@
     <col min="10" max="1025" width="8.85546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1" spans="1:7" ht="23.25">
+      <c r="A1" s="7">
         <v>42440</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:7" ht="18.75">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="121.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:7" ht="121.9" customHeight="1">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5" t="s">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:7" ht="143.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" ht="143.44999999999999" customHeight="1">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:7" ht="104.45" customHeight="1">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1486,10 +1433,10 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="6" width="26"/>
     <col min="7" max="7" width="40"/>
@@ -1497,86 +1444,88 @@
     <col min="10" max="1025" width="8.85546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1" spans="1:7" ht="23.25">
+      <c r="A1" s="7">
         <v>42447</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:7" ht="18.75">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="121.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:7" ht="121.9" customHeight="1">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="143.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:7" ht="143.44999999999999" customHeight="1">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5" t="s">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:7" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="E4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" ht="104.45" customHeight="1">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1595,7 +1544,7 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="6" width="26"/>
     <col min="7" max="7" width="40"/>
@@ -1603,80 +1552,80 @@
     <col min="10" max="1025" width="8.85546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1" spans="1:7" ht="23.25">
+      <c r="A1" s="7">
         <v>42444</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:7" ht="18.75">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="121.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:7" ht="121.9" customHeight="1">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5" t="s">
+      <c r="B3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:7" ht="143.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" ht="143.44999999999999" customHeight="1">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:7" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" ht="104.45" customHeight="1">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1691,94 +1640,99 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.140625" customWidth="1"/>
-    <col min="2" max="6" width="26"/>
-    <col min="7" max="7" width="40"/>
-    <col min="8" max="9" width="26"/>
-    <col min="10" max="1025" width="8.85546875"/>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" customWidth="1"/>
+    <col min="3" max="3" width="39.85546875" customWidth="1"/>
+    <col min="4" max="4" width="31" customWidth="1"/>
+    <col min="5" max="5" width="38.42578125" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" customWidth="1"/>
+    <col min="7" max="7" width="30.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="23.25">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:7" ht="93.75">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="121.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:7" ht="65.25" customHeight="1">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:7" ht="143.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" ht="72" customHeight="1">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:7" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" ht="75">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1787,88 +1741,91 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection sqref="A1:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" customWidth="1"/>
-    <col min="2" max="2" width="27.5703125" customWidth="1"/>
-    <col min="3" max="3" width="32.42578125" customWidth="1"/>
-    <col min="4" max="4" width="32.85546875" customWidth="1"/>
-    <col min="5" max="5" width="29.5703125" customWidth="1"/>
-    <col min="6" max="6" width="29.140625" customWidth="1"/>
-    <col min="7" max="7" width="32.85546875" customWidth="1"/>
+    <col min="2" max="2" width="41.5703125" customWidth="1"/>
+    <col min="3" max="3" width="35.5703125" customWidth="1"/>
+    <col min="4" max="4" width="50.42578125" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" customWidth="1"/>
+    <col min="6" max="6" width="35.5703125" customWidth="1"/>
+    <col min="7" max="7" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="23.25">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:7" ht="93.75">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:7" ht="75">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" ht="56.25">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" ht="75">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/scrum/Dailyscrum.xlsx
+++ b/scrum/Dailyscrum.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16922"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11400982\Documents\GitHub\AppDev05_2016\scrum\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bram\Documents\GitHub\project-appdev\scrum\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="989" firstSheet="7" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="989" firstSheet="6" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <sheet name="22-04-2016" sheetId="11" r:id="rId9"/>
     <sheet name="24-04-2016" sheetId="12" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="171026" iterateDelta="1E-4"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="69">
   <si>
     <t>Datum</t>
   </si>
@@ -259,12 +259,27 @@
   <si>
     <t>Organisaties implementeren</t>
   </si>
+  <si>
+    <t>Event zien + meedoen</t>
+  </si>
+  <si>
+    <t>Bob systeem</t>
+  </si>
+  <si>
+    <t>aanmelden als bob + lijst van bobs weergeven(nog geen ui)</t>
+  </si>
+  <si>
+    <t>Registratie met salt</t>
+  </si>
+  <si>
+    <t>Met een bob mee gaan</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -393,7 +408,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -552,23 +567,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -604,23 +602,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -779,15 +760,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="6" width="26"/>
     <col min="7" max="7" width="40"/>
     <col min="8" max="9" width="26"/>
-    <col min="10" max="1025" width="8.85546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23.25">
+    <row r="1" spans="1:7" ht="23.4" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -798,7 +778,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:7" ht="18.75">
+    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -819,7 +799,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="121.9" customHeight="1">
+    <row r="3" spans="1:7" ht="121.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -830,7 +810,7 @@
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:7" ht="143.44999999999999" customHeight="1">
+    <row r="4" spans="1:7" ht="143.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -841,7 +821,7 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" ht="104.45" customHeight="1">
+    <row r="5" spans="1:7" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -866,20 +846,20 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="31.140625" customWidth="1"/>
-    <col min="3" max="3" width="27.140625" customWidth="1"/>
-    <col min="4" max="4" width="25.5703125" customWidth="1"/>
-    <col min="5" max="5" width="25.42578125" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" customWidth="1"/>
-    <col min="7" max="7" width="27.85546875" customWidth="1"/>
+    <col min="2" max="2" width="31.109375" customWidth="1"/>
+    <col min="3" max="3" width="27.109375" customWidth="1"/>
+    <col min="4" max="4" width="25.5546875" customWidth="1"/>
+    <col min="5" max="5" width="25.44140625" customWidth="1"/>
+    <col min="6" max="6" width="22.44140625" customWidth="1"/>
+    <col min="7" max="7" width="27.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23.25">
+    <row r="1" spans="1:7" ht="23.4" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -890,7 +870,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:7" ht="112.5">
+    <row r="2" spans="1:7" ht="36" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -911,7 +891,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="75">
+    <row r="3" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -923,10 +903,12 @@
       <c r="E3" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F3" s="4"/>
+      <c r="F3" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:7" ht="56.25">
+    <row r="4" spans="1:7" ht="54" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -938,10 +920,12 @@
       <c r="E4" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F4" s="4"/>
+      <c r="F4" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" ht="75">
+    <row r="5" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -968,15 +952,14 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="6" width="26"/>
     <col min="7" max="7" width="40"/>
     <col min="8" max="9" width="26"/>
-    <col min="10" max="1025" width="8.85546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23.25">
+    <row r="1" spans="1:7" ht="23.4" x14ac:dyDescent="0.3">
       <c r="A1" s="7">
         <v>42426</v>
       </c>
@@ -987,7 +970,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:7" ht="18.75">
+    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -1008,7 +991,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="121.9" customHeight="1">
+    <row r="3" spans="1:7" ht="121.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1031,7 +1014,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="143.44999999999999" customHeight="1">
+    <row r="4" spans="1:7" ht="143.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -1054,7 +1037,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="104.45" customHeight="1">
+    <row r="5" spans="1:7" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -1092,15 +1075,14 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="6" width="26"/>
     <col min="7" max="7" width="40"/>
     <col min="8" max="9" width="26"/>
-    <col min="10" max="1025" width="8.85546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23.25">
+    <row r="1" spans="1:7" ht="23.4" x14ac:dyDescent="0.3">
       <c r="A1" s="7">
         <v>42431</v>
       </c>
@@ -1111,7 +1093,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:7" ht="18.75">
+    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -1132,7 +1114,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="121.9" customHeight="1">
+    <row r="3" spans="1:7" ht="121.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1155,7 +1137,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="143.44999999999999" customHeight="1">
+    <row r="4" spans="1:7" ht="143.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -1178,7 +1160,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="104.45" customHeight="1">
+    <row r="5" spans="1:7" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -1212,15 +1194,14 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="6" width="26"/>
     <col min="7" max="7" width="40"/>
     <col min="8" max="9" width="26"/>
-    <col min="10" max="1025" width="8.85546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23.25">
+    <row r="1" spans="1:7" ht="23.4" x14ac:dyDescent="0.3">
       <c r="A1" s="7">
         <v>42433</v>
       </c>
@@ -1231,7 +1212,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:7" ht="18.75">
+    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -1252,7 +1233,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="121.9" customHeight="1">
+    <row r="3" spans="1:7" ht="121.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1273,7 +1254,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="143.44999999999999" customHeight="1">
+    <row r="4" spans="1:7" ht="143.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -1290,7 +1271,7 @@
       </c>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" ht="104.45" customHeight="1">
+    <row r="5" spans="1:7" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -1324,15 +1305,14 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="6" width="26"/>
     <col min="7" max="7" width="40"/>
     <col min="8" max="9" width="26"/>
-    <col min="10" max="1025" width="8.85546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23.25">
+    <row r="1" spans="1:7" ht="23.4" x14ac:dyDescent="0.3">
       <c r="A1" s="7">
         <v>42440</v>
       </c>
@@ -1343,7 +1323,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:7" ht="18.75">
+    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -1364,7 +1344,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="121.9" customHeight="1">
+    <row r="3" spans="1:7" ht="121.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1383,7 +1363,7 @@
       </c>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:7" ht="143.44999999999999" customHeight="1">
+    <row r="4" spans="1:7" ht="143.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -1406,7 +1386,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="104.45" customHeight="1">
+    <row r="5" spans="1:7" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -1436,15 +1416,14 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="6" width="26"/>
     <col min="7" max="7" width="40"/>
     <col min="8" max="9" width="26"/>
-    <col min="10" max="1025" width="8.85546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23.25">
+    <row r="1" spans="1:7" ht="23.4" x14ac:dyDescent="0.3">
       <c r="A1" s="7">
         <v>42447</v>
       </c>
@@ -1455,7 +1434,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:7" ht="18.75">
+    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -1476,7 +1455,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="121.9" customHeight="1">
+    <row r="3" spans="1:7" ht="121.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1499,7 +1478,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="143.44999999999999" customHeight="1">
+    <row r="4" spans="1:7" ht="143.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -1516,7 +1495,7 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" ht="104.45" customHeight="1">
+    <row r="5" spans="1:7" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -1544,15 +1523,14 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="6" width="26"/>
     <col min="7" max="7" width="40"/>
     <col min="8" max="9" width="26"/>
-    <col min="10" max="1025" width="8.85546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23.25">
+    <row r="1" spans="1:7" ht="23.4" x14ac:dyDescent="0.3">
       <c r="A1" s="7">
         <v>42444</v>
       </c>
@@ -1563,7 +1541,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:7" ht="18.75">
+    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -1584,7 +1562,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="121.9" customHeight="1">
+    <row r="3" spans="1:7" ht="121.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1599,7 +1577,7 @@
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:7" ht="143.44999999999999" customHeight="1">
+    <row r="4" spans="1:7" ht="143.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -1614,7 +1592,7 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" ht="104.45" customHeight="1">
+    <row r="5" spans="1:7" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -1641,21 +1619,21 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" customWidth="1"/>
-    <col min="3" max="3" width="39.85546875" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" customWidth="1"/>
+    <col min="2" max="2" width="30.44140625" customWidth="1"/>
+    <col min="3" max="3" width="39.88671875" customWidth="1"/>
     <col min="4" max="4" width="31" customWidth="1"/>
-    <col min="5" max="5" width="38.42578125" customWidth="1"/>
-    <col min="6" max="6" width="22.28515625" customWidth="1"/>
-    <col min="7" max="7" width="30.42578125" customWidth="1"/>
+    <col min="5" max="5" width="38.44140625" customWidth="1"/>
+    <col min="6" max="6" width="22.33203125" customWidth="1"/>
+    <col min="7" max="7" width="30.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23.25">
+    <row r="1" spans="1:7" ht="23.4" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1666,7 +1644,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:7" ht="93.75">
+    <row r="2" spans="1:7" ht="36" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -1687,7 +1665,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="65.25" customHeight="1">
+    <row r="3" spans="1:7" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1699,10 +1677,12 @@
       <c r="E3" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="4"/>
+      <c r="F3" s="4" t="s">
+        <v>64</v>
+      </c>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:7" ht="72" customHeight="1">
+    <row r="4" spans="1:7" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -1714,10 +1694,12 @@
       <c r="E4" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F4" s="4"/>
+      <c r="F4" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" ht="75">
+    <row r="5" spans="1:7" ht="54" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -1741,20 +1723,20 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="41.5703125" customWidth="1"/>
-    <col min="3" max="3" width="35.5703125" customWidth="1"/>
-    <col min="4" max="4" width="50.42578125" customWidth="1"/>
-    <col min="5" max="5" width="32.42578125" customWidth="1"/>
-    <col min="6" max="6" width="35.5703125" customWidth="1"/>
+    <col min="2" max="2" width="41.5546875" customWidth="1"/>
+    <col min="3" max="3" width="35.5546875" customWidth="1"/>
+    <col min="4" max="4" width="50.44140625" customWidth="1"/>
+    <col min="5" max="5" width="32.44140625" customWidth="1"/>
+    <col min="6" max="6" width="35.5546875" customWidth="1"/>
     <col min="7" max="7" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23.25">
+    <row r="1" spans="1:7" ht="23.4" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1765,7 +1747,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:7" ht="93.75">
+    <row r="2" spans="1:7" ht="36" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -1786,7 +1768,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="75">
+    <row r="3" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1798,10 +1780,12 @@
       <c r="E3" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F3" s="4"/>
+      <c r="F3" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:7" ht="56.25">
+    <row r="4" spans="1:7" ht="54" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -1813,10 +1797,12 @@
       <c r="E4" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F4" s="4"/>
+      <c r="F4" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" ht="75">
+    <row r="5" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>

--- a/scrum/Dailyscrum.xlsx
+++ b/scrum/Dailyscrum.xlsx
@@ -5,23 +5,27 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bram\Documents\GitHub\project-appdev\scrum\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11400919\Documents\GitHub\AppDev05_2016\scrum\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="989" firstSheet="6" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="989" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Template" sheetId="1" r:id="rId1"/>
-    <sheet name="26-02-2016" sheetId="2" r:id="rId2"/>
-    <sheet name="02-03-2016" sheetId="3" r:id="rId3"/>
-    <sheet name="04-03-2016" sheetId="4" r:id="rId4"/>
-    <sheet name="11-03-2016" sheetId="5" r:id="rId5"/>
-    <sheet name="18-03-2016" sheetId="6" r:id="rId6"/>
-    <sheet name="15-03-2016" sheetId="7" r:id="rId7"/>
-    <sheet name="20-04-2016" sheetId="10" r:id="rId8"/>
-    <sheet name="22-04-2016" sheetId="11" r:id="rId9"/>
-    <sheet name="24-04-2016" sheetId="12" r:id="rId10"/>
+    <sheet name="24-04-2016" sheetId="12" r:id="rId1"/>
+    <sheet name="29-04-2016" sheetId="15" r:id="rId2"/>
+    <sheet name="06-05-2016" sheetId="17" r:id="rId3"/>
+    <sheet name="13-05-2016" sheetId="18" r:id="rId4"/>
+    <sheet name="20-05-2016" sheetId="19" r:id="rId5"/>
+    <sheet name="template" sheetId="1" r:id="rId6"/>
+    <sheet name="26-02-2016" sheetId="2" r:id="rId7"/>
+    <sheet name="02-03-2016" sheetId="3" r:id="rId8"/>
+    <sheet name="04-03-2016" sheetId="4" r:id="rId9"/>
+    <sheet name="11-03-2016" sheetId="5" r:id="rId10"/>
+    <sheet name="18-03-2016" sheetId="6" r:id="rId11"/>
+    <sheet name="15-03-2016" sheetId="7" r:id="rId12"/>
+    <sheet name="20-04-2016" sheetId="10" r:id="rId13"/>
+    <sheet name="22-04-2016" sheetId="11" r:id="rId14"/>
   </sheets>
   <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
@@ -33,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="105">
   <si>
     <t>Datum</t>
   </si>
@@ -273,6 +277,114 @@
   </si>
   <si>
     <t>Met een bob mee gaan</t>
+  </si>
+  <si>
+    <t>loginscherm desktop aangemaakt</t>
+  </si>
+  <si>
+    <t>menu aanmaken desktop</t>
+  </si>
+  <si>
+    <t>problemen background menu</t>
+  </si>
+  <si>
+    <t>Menu aangemaakt</t>
+  </si>
+  <si>
+    <t>WebApi hernemen</t>
+  </si>
+  <si>
+    <t>kennis WebApi ontbreekt</t>
+  </si>
+  <si>
+    <t>homepage desktop aangemaakt</t>
+  </si>
+  <si>
+    <t>beheer gebruikers</t>
+  </si>
+  <si>
+    <t>homepage website</t>
+  </si>
+  <si>
+    <t>Repositories aanmaken</t>
+  </si>
+  <si>
+    <t>functies aangemaakt</t>
+  </si>
+  <si>
+    <t>Models geïmplementeerd desktop</t>
+  </si>
+  <si>
+    <t>Verderwerken menu</t>
+  </si>
+  <si>
+    <t>registratie gebruiker</t>
+  </si>
+  <si>
+    <t>Overzicht artikels, evenementen</t>
+  </si>
+  <si>
+    <t>Login form</t>
+  </si>
+  <si>
+    <t>registratie organisatie</t>
+  </si>
+  <si>
+    <t>Twitter feed homepage</t>
+  </si>
+  <si>
+    <t>Reviewspage desktop</t>
+  </si>
+  <si>
+    <t>Verderwerken menu, beheer gebruikers</t>
+  </si>
+  <si>
+    <t>reviews bij evenementen</t>
+  </si>
+  <si>
+    <t>beheer gebruikers, beheer organisaties, overzicht logins, filtering</t>
+  </si>
+  <si>
+    <t>layout aanpassingen desktop</t>
+  </si>
+  <si>
+    <t>Tips, profielsettings</t>
+  </si>
+  <si>
+    <t>filtering events</t>
+  </si>
+  <si>
+    <t>bob systeem aanpassen</t>
+  </si>
+  <si>
+    <t>updating statspage</t>
+  </si>
+  <si>
+    <t>partners toevoegen</t>
+  </si>
+  <si>
+    <t>twitterfeed</t>
+  </si>
+  <si>
+    <t>Bugfixing, own mailwindow</t>
+  </si>
+  <si>
+    <t>statspage</t>
+  </si>
+  <si>
+    <t>bugfixing</t>
+  </si>
+  <si>
+    <t>Bugfixing</t>
+  </si>
+  <si>
+    <t>partnerpage website</t>
+  </si>
+  <si>
+    <t>Tips en partner page desktop</t>
+  </si>
+  <si>
+    <t>Homepage website</t>
   </si>
 </sst>
 </file>
@@ -383,7 +495,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -406,9 +518,12 @@
     <xf numFmtId="15" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -492,9 +607,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Kantoor">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -532,7 +647,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Kantoor">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -604,7 +719,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Kantoor">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -756,97 +871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="6" width="26"/>
-    <col min="7" max="7" width="40"/>
-    <col min="8" max="9" width="26"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-    </row>
-    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="121.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="1:7" ht="143.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="1:7" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -896,7 +922,9 @@
         <v>7</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
+      <c r="C3" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="D3" s="4" t="s">
         <v>62</v>
       </c>
@@ -906,14 +934,18 @@
       <c r="F3" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="G3" s="4"/>
+      <c r="G3" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="54" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
+      <c r="C4" s="4" t="s">
+        <v>76</v>
+      </c>
       <c r="D4" s="4" t="s">
         <v>63</v>
       </c>
@@ -923,7 +955,9 @@
       <c r="F4" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="G4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
@@ -931,6 +965,558 @@
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="6"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="6" width="26"/>
+    <col min="7" max="7" width="40"/>
+    <col min="8" max="9" width="26"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="7">
+        <v>42440</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="121.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" ht="143.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="6" width="26"/>
+    <col min="7" max="7" width="40"/>
+    <col min="8" max="9" width="26"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="7">
+        <v>42447</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="121.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="143.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="6" width="26"/>
+    <col min="7" max="7" width="40"/>
+    <col min="8" max="9" width="26"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="7">
+        <v>42444</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="121.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="143.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.88671875" customWidth="1"/>
+    <col min="2" max="2" width="30.44140625" customWidth="1"/>
+    <col min="3" max="3" width="39.88671875" customWidth="1"/>
+    <col min="4" max="4" width="31" customWidth="1"/>
+    <col min="5" max="5" width="38.44140625" customWidth="1"/>
+    <col min="6" max="6" width="22.33203125" customWidth="1"/>
+    <col min="7" max="7" width="30.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:7" ht="36" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="54" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="41.5546875" customWidth="1"/>
+    <col min="3" max="3" width="35.5546875" customWidth="1"/>
+    <col min="4" max="4" width="50.44140625" customWidth="1"/>
+    <col min="5" max="5" width="32.44140625" customWidth="1"/>
+    <col min="6" max="6" width="35.5546875" customWidth="1"/>
+    <col min="7" max="7" width="29" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:7" ht="36" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="54" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="6" t="s">
+        <v>74</v>
+      </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -945,6 +1531,540 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="41.5546875" customWidth="1"/>
+    <col min="3" max="3" width="35.5546875" customWidth="1"/>
+    <col min="4" max="4" width="50.44140625" customWidth="1"/>
+    <col min="5" max="5" width="32.44140625" customWidth="1"/>
+    <col min="6" max="6" width="35.5546875" customWidth="1"/>
+    <col min="7" max="7" width="29" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:7" ht="36" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="54" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="41.5546875" customWidth="1"/>
+    <col min="3" max="3" width="35.5546875" customWidth="1"/>
+    <col min="4" max="4" width="50.44140625" customWidth="1"/>
+    <col min="5" max="5" width="32.44140625" customWidth="1"/>
+    <col min="6" max="6" width="35.5546875" customWidth="1"/>
+    <col min="7" max="7" width="29" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:7" ht="36" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="54" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="41.5546875" customWidth="1"/>
+    <col min="3" max="3" width="35.5546875" customWidth="1"/>
+    <col min="4" max="4" width="50.44140625" customWidth="1"/>
+    <col min="5" max="5" width="32.44140625" customWidth="1"/>
+    <col min="6" max="6" width="35.5546875" customWidth="1"/>
+    <col min="7" max="7" width="29" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:7" ht="36" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="54" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="41.5546875" customWidth="1"/>
+    <col min="3" max="3" width="35.5546875" customWidth="1"/>
+    <col min="4" max="4" width="50.44140625" customWidth="1"/>
+    <col min="5" max="5" width="32.44140625" customWidth="1"/>
+    <col min="6" max="6" width="35.5546875" customWidth="1"/>
+    <col min="7" max="7" width="29" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:7" ht="36" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="54" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="6" width="26"/>
+    <col min="7" max="7" width="40"/>
+    <col min="8" max="9" width="26"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="121.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" ht="143.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
@@ -1067,7 +2187,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
@@ -1186,7 +2306,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
@@ -1295,528 +2415,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="6" width="26"/>
-    <col min="7" max="7" width="40"/>
-    <col min="8" max="9" width="26"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="7">
-        <v>42440</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-    </row>
-    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="121.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="1:7" ht="143.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="6" width="26"/>
-    <col min="7" max="7" width="40"/>
-    <col min="8" max="9" width="26"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="7">
-        <v>42447</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-    </row>
-    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="121.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="143.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="1:7" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="6" width="26"/>
-    <col min="7" max="7" width="40"/>
-    <col min="8" max="9" width="26"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="7">
-        <v>42444</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-    </row>
-    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="121.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="1:7" ht="143.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="1:7" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="11.88671875" customWidth="1"/>
-    <col min="2" max="2" width="30.44140625" customWidth="1"/>
-    <col min="3" max="3" width="39.88671875" customWidth="1"/>
-    <col min="4" max="4" width="31" customWidth="1"/>
-    <col min="5" max="5" width="38.44140625" customWidth="1"/>
-    <col min="6" max="6" width="22.33203125" customWidth="1"/>
-    <col min="7" max="7" width="30.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-    </row>
-    <row r="2" spans="1:7" ht="36" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="1:7" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="1:7" ht="54" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="41.5546875" customWidth="1"/>
-    <col min="3" max="3" width="35.5546875" customWidth="1"/>
-    <col min="4" max="4" width="50.44140625" customWidth="1"/>
-    <col min="5" max="5" width="32.44140625" customWidth="1"/>
-    <col min="6" max="6" width="35.5546875" customWidth="1"/>
-    <col min="7" max="7" width="29" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-    </row>
-    <row r="2" spans="1:7" ht="36" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="1:7" ht="54" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>